--- a/заказы/статистика филиалы/2023/11,23/15,11,23 КИ/дв 15,11,23 лгрсч от филиала.xlsx
+++ b/заказы/статистика филиалы/2023/11,23/15,11,23 КИ/дв 15,11,23 лгрсч от филиала.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\11,23\15,11,23 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BF52CE-6C25-43A0-932B-3E70AA2D4B95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AC3E7A-54C7-48C5-B494-417FAFED51F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="253" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$Z$97</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -5701,10 +5701,10 @@
         </row>
         <row r="5">
           <cell r="F5">
-            <v>29789.739000000001</v>
+            <v>12042.583000000006</v>
           </cell>
           <cell r="G5">
-            <v>25731.039999999997</v>
+            <v>6305.6320000000005</v>
           </cell>
         </row>
         <row r="6">
@@ -5718,13 +5718,16 @@
             <v>Нояб</v>
           </cell>
           <cell r="D6">
-            <v>309.74700000000001</v>
+            <v>82.155000000000001</v>
+          </cell>
+          <cell r="E6">
+            <v>2.5000000000000001E-2</v>
           </cell>
           <cell r="F6">
-            <v>189.334</v>
+            <v>64.847999999999999</v>
           </cell>
           <cell r="G6">
-            <v>77.504000000000005</v>
+            <v>6.6120000000000001</v>
           </cell>
           <cell r="H6">
             <v>1</v>
@@ -5741,16 +5744,16 @@
             <v>кг</v>
           </cell>
           <cell r="D7">
-            <v>626.61800000000005</v>
+            <v>137.53100000000001</v>
           </cell>
           <cell r="E7">
-            <v>11.654</v>
+            <v>6.0000000000000001E-3</v>
           </cell>
           <cell r="F7">
-            <v>107.02500000000001</v>
+            <v>98.95</v>
           </cell>
           <cell r="G7">
-            <v>478.75700000000001</v>
+            <v>26.363</v>
           </cell>
           <cell r="H7">
             <v>1</v>
@@ -5767,16 +5770,16 @@
             <v>кг</v>
           </cell>
           <cell r="D8">
-            <v>588.65</v>
+            <v>78.334000000000003</v>
           </cell>
           <cell r="E8">
-            <v>74.441999999999993</v>
+            <v>5.0999999999999997E-2</v>
           </cell>
           <cell r="F8">
-            <v>273.86099999999999</v>
+            <v>77.66</v>
           </cell>
           <cell r="G8">
-            <v>296.20800000000003</v>
+            <v>-10.183</v>
           </cell>
           <cell r="H8">
             <v>1</v>
@@ -5792,17 +5795,11 @@
           <cell r="B9" t="str">
             <v>шт</v>
           </cell>
-          <cell r="D9">
-            <v>88</v>
-          </cell>
           <cell r="E9">
-            <v>80</v>
+            <v>10</v>
           </cell>
           <cell r="F9">
-            <v>37</v>
-          </cell>
-          <cell r="G9">
-            <v>111</v>
+            <v>10</v>
           </cell>
           <cell r="H9">
             <v>0.4</v>
@@ -5813,68 +5810,65 @@
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>027  Колбаса Сервелат Столичный, Вязанка фиброуз в/у, 0.35кг, ПОКОМ</v>
+            <v>030  Сосиски Вязанка Молочные, Вязанка вискофан МГС, 0.45кг, ПОКОМ</v>
           </cell>
           <cell r="B10" t="str">
             <v>шт</v>
           </cell>
           <cell r="D10">
-            <v>14</v>
+            <v>282</v>
           </cell>
           <cell r="F10">
-            <v>-1</v>
+            <v>217</v>
+          </cell>
+          <cell r="G10">
+            <v>53</v>
           </cell>
           <cell r="H10">
-            <v>0</v>
+            <v>0.45</v>
           </cell>
           <cell r="I10">
-            <v>40</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>029  Сосиски Венские, Вязанка NDX МГС, 0.5кг, ПОКОМ</v>
+            <v>032  Сосиски Вязанка Сливочные, Вязанка амицел МГС, 0.45кг, ПОКОМ</v>
           </cell>
           <cell r="B11" t="str">
             <v>шт</v>
           </cell>
           <cell r="D11">
-            <v>138</v>
-          </cell>
-          <cell r="E11">
-            <v>102</v>
+            <v>203</v>
           </cell>
           <cell r="F11">
-            <v>240</v>
+            <v>182</v>
+          </cell>
+          <cell r="G11">
+            <v>-11</v>
           </cell>
           <cell r="H11">
-            <v>0</v>
+            <v>0.45</v>
           </cell>
           <cell r="I11">
-            <v>31</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>030  Сосиски Вязанка Молочные, Вязанка вискофан МГС, 0.45кг, ПОКОМ</v>
+            <v>036  Колбаса Сервелат Запекуша с сочным окороком, Вязанка 0,35кг,  ПОКОМ</v>
           </cell>
           <cell r="B12" t="str">
             <v>шт</v>
           </cell>
-          <cell r="D12">
-            <v>320</v>
-          </cell>
           <cell r="E12">
-            <v>428</v>
+            <v>12</v>
           </cell>
           <cell r="F12">
-            <v>244</v>
-          </cell>
-          <cell r="G12">
-            <v>444</v>
+            <v>12</v>
           </cell>
           <cell r="H12">
-            <v>0.45</v>
+            <v>0.35</v>
           </cell>
           <cell r="I12">
             <v>45</v>
@@ -5882,74 +5876,65 @@
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>032  Сосиски Вязанка Сливочные, Вязанка амицел МГС, 0.45кг, ПОКОМ</v>
+            <v>058  Колбаса Докторская Особая ТМ Особый рецепт,  0,5кг, ПОКОМ</v>
           </cell>
           <cell r="B13" t="str">
             <v>шт</v>
           </cell>
-          <cell r="D13">
-            <v>959</v>
-          </cell>
           <cell r="E13">
-            <v>180</v>
+            <v>10</v>
           </cell>
           <cell r="F13">
-            <v>370</v>
+            <v>6</v>
           </cell>
           <cell r="G13">
-            <v>656</v>
+            <v>4</v>
           </cell>
           <cell r="H13">
-            <v>0.45</v>
+            <v>0.5</v>
           </cell>
           <cell r="I13">
-            <v>45</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>036  Колбаса Сервелат Запекуша с сочным окороком, Вязанка 0,35кг,  ПОКОМ</v>
+            <v>059  Колбаса Докторская по-стародворски  0.5 кг, ПОКОМ</v>
           </cell>
           <cell r="B14" t="str">
             <v>шт</v>
           </cell>
-          <cell r="D14">
-            <v>92</v>
-          </cell>
           <cell r="E14">
-            <v>1</v>
+            <v>10</v>
           </cell>
           <cell r="F14">
-            <v>-1</v>
+            <v>6</v>
+          </cell>
+          <cell r="G14">
+            <v>4</v>
           </cell>
           <cell r="H14">
-            <v>0.35</v>
+            <v>0.5</v>
           </cell>
           <cell r="I14">
-            <v>45</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>043  Ветчина Нежная ТМ Особый рецепт, п/а, 0,4кг    ПОКОМ</v>
+            <v>064  Колбаса Молочная Дугушка, вектор 0,4 кг, ТМ Стародворье  ПОКОМ</v>
           </cell>
           <cell r="B15" t="str">
             <v>шт</v>
           </cell>
-          <cell r="D15">
-            <v>285</v>
-          </cell>
           <cell r="E15">
-            <v>30</v>
+            <v>6</v>
           </cell>
           <cell r="F15">
-            <v>155</v>
-          </cell>
-          <cell r="G15">
-            <v>158</v>
+            <v>6</v>
           </cell>
           <cell r="H15">
-            <v>0</v>
+            <v>0.4</v>
           </cell>
           <cell r="I15">
             <v>50</v>
@@ -5957,404 +5942,404 @@
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>047  Кол Баварская, белков.обол. в термоусад. пакете 0.17 кг, ТМ Стародворье  ПОКОМ</v>
+            <v>065  Колбаса Молочная по-стародворски, 0,5кг,ПОКОМ</v>
           </cell>
           <cell r="B16" t="str">
             <v>шт</v>
           </cell>
-          <cell r="D16">
-            <v>60</v>
-          </cell>
-          <cell r="F16">
-            <v>60</v>
+          <cell r="E16">
+            <v>10</v>
+          </cell>
+          <cell r="G16">
+            <v>4</v>
           </cell>
           <cell r="H16">
-            <v>0</v>
+            <v>0.5</v>
           </cell>
           <cell r="I16">
-            <v>180</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>054  Колбаса вареная Филейбургская с филе сочного окорока, 0,45 кг, БАВАРУШКА ПОКОМ</v>
+            <v>079  Колбаса Сервелат Кремлевский,  0.35 кг, ПОКОМ</v>
           </cell>
           <cell r="B17" t="str">
             <v>шт</v>
           </cell>
-          <cell r="D17">
-            <v>24</v>
-          </cell>
           <cell r="E17">
-            <v>1</v>
+            <v>6</v>
           </cell>
           <cell r="F17">
-            <v>25</v>
+            <v>6</v>
           </cell>
           <cell r="H17">
-            <v>0</v>
+            <v>0.35</v>
           </cell>
           <cell r="I17">
-            <v>50</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>055  Колбаса вареная Филейбургская, 0,45 кг, БАВАРУШКА ПОКОМ</v>
+            <v>082  Колбаса Стародворская, 0,4кг, ТС Старый двор  ПОКОМ</v>
           </cell>
           <cell r="B18" t="str">
             <v>шт</v>
           </cell>
           <cell r="D18">
-            <v>30</v>
-          </cell>
-          <cell r="F18">
-            <v>30</v>
+            <v>4</v>
+          </cell>
+          <cell r="G18">
+            <v>4</v>
           </cell>
           <cell r="H18">
             <v>0</v>
           </cell>
           <cell r="I18">
-            <v>50</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>058  Колбаса Докторская Особая ТМ Особый рецепт,  0,5кг, ПОКОМ</v>
+            <v>096  Сосиски Баварские,  0.42кг,ПОКОМ</v>
           </cell>
           <cell r="B19" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C19" t="str">
+            <v>бонус_Н</v>
+          </cell>
           <cell r="D19">
-            <v>116</v>
+            <v>120</v>
           </cell>
           <cell r="F19">
-            <v>43</v>
+            <v>175</v>
           </cell>
           <cell r="G19">
-            <v>69</v>
+            <v>-55</v>
           </cell>
           <cell r="H19">
-            <v>0.5</v>
+            <v>0.42</v>
           </cell>
           <cell r="I19">
-            <v>60</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>059  Колбаса Докторская по-стародворски  0.5 кг, ПОКОМ</v>
+            <v>113  Чипсы сыровяленые из натурального филе, 0,025кг ТМ Ядрена Копоть ПОКОМ</v>
           </cell>
           <cell r="B20" t="str">
             <v>шт</v>
           </cell>
-          <cell r="D20">
-            <v>408</v>
-          </cell>
           <cell r="E20">
-            <v>250</v>
-          </cell>
-          <cell r="F20">
-            <v>540</v>
+            <v>30</v>
+          </cell>
+          <cell r="G20">
+            <v>20</v>
           </cell>
           <cell r="H20">
-            <v>0</v>
+            <v>2.5000000000000001E-2</v>
           </cell>
           <cell r="I20">
-            <v>55</v>
+            <v>120</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>060  Колбаса Докторская стародворская  0,5 кг,ПОКОМ</v>
+            <v>115  Колбаса Салями Филейбургская зернистая, в/у 0,35 кг срез, БАВАРУШКА ПОКОМ</v>
           </cell>
           <cell r="B21" t="str">
             <v>шт</v>
           </cell>
-          <cell r="D21">
-            <v>80</v>
-          </cell>
           <cell r="E21">
-            <v>40</v>
+            <v>6</v>
           </cell>
           <cell r="F21">
-            <v>120</v>
+            <v>6</v>
           </cell>
           <cell r="H21">
-            <v>0</v>
+            <v>0.35</v>
           </cell>
           <cell r="I21">
-            <v>55</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>062  Колбаса Кракушка пряная с сальцем, 0.3кг в/у п/к, БАВАРУШКА ПОКОМ</v>
+            <v>116  Колбаса Балыкбурская с копченым балыком, в/у 0,35 кг срез, БАВАРУШКА ПОКОМ</v>
           </cell>
           <cell r="B22" t="str">
             <v>шт</v>
           </cell>
-          <cell r="D22">
-            <v>170</v>
-          </cell>
           <cell r="E22">
-            <v>66</v>
+            <v>6</v>
           </cell>
           <cell r="F22">
-            <v>168</v>
-          </cell>
-          <cell r="G22">
-            <v>57</v>
+            <v>6</v>
           </cell>
           <cell r="H22">
-            <v>0.3</v>
+            <v>0.35</v>
           </cell>
           <cell r="I22">
-            <v>40</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>064  Колбаса Молочная Дугушка, вектор 0,4 кг, ТМ Стародворье  ПОКОМ</v>
+            <v>200  Ветчина Дугушка ТМ Стародворье, вектор в/у    ПОКОМ</v>
           </cell>
           <cell r="B23" t="str">
-            <v>шт</v>
+            <v>кг</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>Нояб</v>
           </cell>
           <cell r="D23">
-            <v>198</v>
-          </cell>
-          <cell r="E23">
-            <v>300</v>
+            <v>60.389000000000003</v>
           </cell>
           <cell r="F23">
-            <v>498</v>
+            <v>54.866999999999997</v>
+          </cell>
+          <cell r="G23">
+            <v>-2.4140000000000001</v>
           </cell>
           <cell r="H23">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="I23">
-            <v>50</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>091  Сардельки Баварские, МГС 0.38кг, ТМ Стародворье  ПОКОМ</v>
+            <v>201  Ветчина Нежная ТМ Особый рецепт, (2,5кг), ПОКОМ</v>
           </cell>
           <cell r="B24" t="str">
-            <v>шт</v>
+            <v>кг</v>
           </cell>
           <cell r="D24">
-            <v>150</v>
+            <v>3148.866</v>
           </cell>
           <cell r="E24">
-            <v>102</v>
+            <v>15.007999999999999</v>
           </cell>
           <cell r="F24">
-            <v>252</v>
+            <v>1845.28</v>
+          </cell>
+          <cell r="G24">
+            <v>1035.9860000000001</v>
           </cell>
           <cell r="H24">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="I24">
-            <v>40</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>092  Сосиски Баварские с сыром,  0.42кг,ПОКОМ</v>
+            <v>217  Колбаса Докторская Дугушка, ВЕС, НЕ ГОСТ, ТМ Стародворье ПОКОМ</v>
           </cell>
           <cell r="B25" t="str">
-            <v>шт</v>
+            <v>кг</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>Нояб</v>
           </cell>
           <cell r="D25">
-            <v>584</v>
+            <v>45.343000000000004</v>
           </cell>
           <cell r="E25">
-            <v>509</v>
+            <v>1.5009999999999999</v>
           </cell>
           <cell r="F25">
-            <v>1029</v>
+            <v>30.771999999999998</v>
           </cell>
           <cell r="G25">
-            <v>62</v>
+            <v>-5.2869999999999999</v>
           </cell>
           <cell r="H25">
-            <v>0.42</v>
+            <v>1</v>
           </cell>
           <cell r="I25">
-            <v>40</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>096  Сосиски Баварские,  0.42кг,ПОКОМ</v>
+            <v>218  Колбаса Докторская оригинальная ТМ Особый рецепт БОЛЬШОЙ БАТОН, п/а ВЕС, ТМ Стародворье ПОКОМ</v>
           </cell>
           <cell r="B26" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C26" t="str">
-            <v>бонус_Н</v>
-          </cell>
-          <cell r="D26">
-            <v>1138</v>
+            <v>кг</v>
           </cell>
           <cell r="E26">
-            <v>300</v>
+            <v>10.869</v>
           </cell>
           <cell r="F26">
-            <v>1271.2</v>
+            <v>7.2080000000000002</v>
           </cell>
           <cell r="G26">
-            <v>5</v>
+            <v>3.661</v>
           </cell>
           <cell r="H26">
-            <v>0.42</v>
+            <v>1</v>
           </cell>
           <cell r="I26">
-            <v>45</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>100  Сосиски Баварушки, 0.6кг, БАВАРУШКА ПОКОМ</v>
+            <v>219  Колбаса Докторская Особая ТМ Особый рецепт, ВЕС  ПОКОМ</v>
           </cell>
           <cell r="B27" t="str">
-            <v>шт</v>
+            <v>кг</v>
           </cell>
           <cell r="D27">
-            <v>84</v>
+            <v>2744.4029999999998</v>
           </cell>
           <cell r="F27">
-            <v>84</v>
+            <v>1460.703</v>
+          </cell>
+          <cell r="G27">
+            <v>1021.069</v>
           </cell>
           <cell r="H27">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="I27">
-            <v>45</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>108  Сосиски С сыром,  0.42кг,ядрена копоть ПОКОМ</v>
+            <v>223  Колбаса Докторская стародворская, фиброуз ВАКУУМ ВЕС, ТМ Стародворье ПОКОМ</v>
           </cell>
           <cell r="B28" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="D28">
-            <v>144</v>
+            <v>кг</v>
           </cell>
           <cell r="E28">
-            <v>54</v>
-          </cell>
-          <cell r="F28">
-            <v>198</v>
+            <v>32.244</v>
+          </cell>
+          <cell r="G28">
+            <v>16.196000000000002</v>
           </cell>
           <cell r="H28">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="I28">
-            <v>35</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>114  Сосиски Филейбургские с филе сочного окорока, 0,55 кг, БАВАРУШКА ПОКОМ</v>
+            <v>225  Колбаса Дугушка со шпиком, ВЕС, ТМ Стародворье   ПОКОМ</v>
           </cell>
           <cell r="B29" t="str">
-            <v>шт</v>
+            <v>кг</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>Нояб</v>
           </cell>
           <cell r="D29">
-            <v>96</v>
+            <v>325.20699999999999</v>
           </cell>
           <cell r="E29">
-            <v>40</v>
+            <v>2.0169999999999999</v>
           </cell>
           <cell r="F29">
-            <v>136</v>
+            <v>31.437000000000001</v>
+          </cell>
+          <cell r="G29">
+            <v>291.35500000000002</v>
           </cell>
           <cell r="H29">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="I29">
-            <v>45</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>115  Колбаса Салями Филейбургская зернистая, в/у 0,35 кг срез, БАВАРУШКА ПОКОМ</v>
+            <v>229  Колбаса Молочная Дугушка, в/у, ВЕС, ТМ Стародворье   ПОКОМ</v>
           </cell>
           <cell r="B30" t="str">
-            <v>шт</v>
+            <v>кг</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>Нояб</v>
           </cell>
           <cell r="D30">
-            <v>57</v>
-          </cell>
-          <cell r="E30">
-            <v>24</v>
+            <v>200.91900000000001</v>
           </cell>
           <cell r="F30">
-            <v>67</v>
+            <v>149.005</v>
           </cell>
           <cell r="G30">
-            <v>11</v>
+            <v>28.079000000000001</v>
           </cell>
           <cell r="H30">
-            <v>0.35</v>
+            <v>1</v>
           </cell>
           <cell r="I30">
-            <v>45</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>117  Колбаса Сервелат Филейбургский с ароматными пряностями, в/у 0,35 кг срез, БАВАРУШКА ПОКОМ</v>
+            <v>230  Колбаса Молочная Особая ТМ Особый рецепт, п/а, ВЕС. ПОКОМ</v>
           </cell>
           <cell r="B31" t="str">
-            <v>шт</v>
+            <v>кг</v>
           </cell>
           <cell r="D31">
-            <v>48</v>
+            <v>2125.0929999999998</v>
           </cell>
           <cell r="E31">
-            <v>44</v>
+            <v>15.654999999999999</v>
           </cell>
           <cell r="F31">
-            <v>92</v>
+            <v>1299.739</v>
+          </cell>
+          <cell r="G31">
+            <v>569.16700000000003</v>
           </cell>
           <cell r="H31">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="I31">
-            <v>45</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>118  Колбаса Сервелат Филейбургский с филе сочного окорока, в/у 0,35 кг срез, БАВАРУШКА ПОКОМ</v>
+            <v>235  Колбаса Особая ТМ Особый рецепт, ВЕС, ТМ Стародворье ПОКОМ</v>
           </cell>
           <cell r="B32" t="str">
-            <v>шт</v>
+            <v>кг</v>
           </cell>
           <cell r="D32">
+            <v>2309.29</v>
+          </cell>
+          <cell r="F32">
+            <v>1201.8989999999999</v>
+          </cell>
+          <cell r="G32">
+            <v>816.58600000000001</v>
+          </cell>
+          <cell r="H32">
+            <v>1</v>
+          </cell>
+          <cell r="I32">
             <v>60</v>
-          </cell>
-          <cell r="E32">
-            <v>42</v>
-          </cell>
-          <cell r="F32">
-            <v>102</v>
-          </cell>
-          <cell r="H32">
-            <v>0</v>
-          </cell>
-          <cell r="I32">
-            <v>45</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>200  Ветчина Дугушка ТМ Стародворье, вектор в/у    ПОКОМ</v>
+            <v>236  Колбаса Рубленая ЗАПЕЧ. Дугушка ТМ Стародворье, вектор, в/к    ПОКОМ</v>
           </cell>
           <cell r="B33" t="str">
             <v>кг</v>
@@ -6363,504 +6348,468 @@
             <v>Нояб</v>
           </cell>
           <cell r="D33">
-            <v>1122.665</v>
+            <v>273.75700000000001</v>
           </cell>
           <cell r="F33">
-            <v>533.68499999999995</v>
+            <v>80.103999999999999</v>
           </cell>
           <cell r="G33">
-            <v>436.63499999999999</v>
+            <v>167.37299999999999</v>
           </cell>
           <cell r="H33">
             <v>1</v>
           </cell>
           <cell r="I33">
-            <v>55</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>201  Ветчина Нежная ТМ Особый рецепт, (2,5кг), ПОКОМ</v>
+            <v>239  Колбаса Салями запеч Дугушка, оболочка вектор, ВЕС, ТМ Стародворье  ПОКОМ</v>
           </cell>
           <cell r="B34" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C34" t="str">
+            <v>Нояб</v>
+          </cell>
           <cell r="D34">
-            <v>3206.277</v>
-          </cell>
-          <cell r="E34">
-            <v>837.29300000000001</v>
+            <v>309.12</v>
           </cell>
           <cell r="F34">
-            <v>3009.0970000000002</v>
+            <v>31.779</v>
           </cell>
           <cell r="G34">
-            <v>799.44200000000001</v>
+            <v>257.12</v>
           </cell>
           <cell r="H34">
             <v>1</v>
           </cell>
           <cell r="I34">
-            <v>50</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>215  Колбаса Докторская ГОСТ Дугушка, ВЕС, ТМ Стародворье ПОКОМ</v>
+            <v>242  Колбаса Сервелат ЗАПЕЧ.Дугушка ТМ Стародворье, вектор, в/к     ПОКОМ</v>
           </cell>
           <cell r="B35" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C35" t="str">
+            <v>Нояб</v>
+          </cell>
           <cell r="D35">
-            <v>53.677999999999997</v>
+            <v>93.786000000000001</v>
           </cell>
           <cell r="F35">
-            <v>21.134</v>
+            <v>57.887</v>
           </cell>
           <cell r="G35">
-            <v>7.8920000000000003</v>
+            <v>23.625</v>
           </cell>
           <cell r="H35">
             <v>1</v>
           </cell>
           <cell r="I35">
-            <v>55</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>217  Колбаса Докторская Дугушка, ВЕС, НЕ ГОСТ, ТМ Стародворье ПОКОМ</v>
+            <v>248  Сардельки Сочные ТМ Особый рецепт,   ПОКОМ</v>
           </cell>
           <cell r="B36" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C36" t="str">
-            <v>Нояб</v>
-          </cell>
           <cell r="D36">
-            <v>1656.405</v>
-          </cell>
-          <cell r="E36">
-            <v>7.3460000000000001</v>
+            <v>315.70600000000002</v>
           </cell>
           <cell r="F36">
-            <v>1.75</v>
+            <v>202.06899999999999</v>
+          </cell>
+          <cell r="G36">
+            <v>74.742999999999995</v>
           </cell>
           <cell r="H36">
             <v>1</v>
           </cell>
           <cell r="I36">
-            <v>55</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>219  Колбаса Докторская Особая ТМ Особый рецепт, ВЕС  ПОКОМ</v>
+            <v>250  Сардельки стародворские с говядиной в обол. NDX, ВЕС. ПОКОМ</v>
           </cell>
           <cell r="B37" t="str">
             <v>кг</v>
           </cell>
           <cell r="D37">
-            <v>6632.4549999999999</v>
-          </cell>
-          <cell r="E37">
-            <v>3609.73</v>
+            <v>288.24799999999999</v>
           </cell>
           <cell r="F37">
-            <v>4195.0940000000001</v>
+            <v>224.142</v>
           </cell>
           <cell r="G37">
-            <v>5540.5659999999998</v>
+            <v>32.51</v>
           </cell>
           <cell r="H37">
             <v>1</v>
           </cell>
           <cell r="I37">
-            <v>60</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>225  Колбаса Дугушка со шпиком, ВЕС, ТМ Стародворье   ПОКОМ</v>
+            <v>255  Сосиски Молочные для завтрака ТМ Особый рецепт, п/а МГС, ВЕС, ТМ Стародворье  ПОКОМ</v>
           </cell>
           <cell r="B38" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C38" t="str">
-            <v>Нояб</v>
-          </cell>
           <cell r="D38">
-            <v>27.091000000000001</v>
-          </cell>
-          <cell r="E38">
-            <v>188.82599999999999</v>
+            <v>606.57000000000005</v>
           </cell>
           <cell r="F38">
-            <v>24.555</v>
+            <v>207.14699999999999</v>
           </cell>
           <cell r="G38">
-            <v>169.41800000000001</v>
+            <v>337.70699999999999</v>
           </cell>
           <cell r="H38">
             <v>1</v>
           </cell>
           <cell r="I38">
-            <v>50</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>229  Колбаса Молочная Дугушка, в/у, ВЕС, ТМ Стародворье   ПОКОМ</v>
+            <v>257  Сосиски Молочные оригинальные ТМ Особый рецепт, ВЕС.   ПОКОМ</v>
           </cell>
           <cell r="B39" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C39" t="str">
-            <v>Нояб</v>
-          </cell>
           <cell r="D39">
-            <v>568.81299999999999</v>
-          </cell>
-          <cell r="E39">
-            <v>1205.299</v>
+            <v>228.625</v>
           </cell>
           <cell r="F39">
-            <v>407.21100000000001</v>
+            <v>79.635000000000005</v>
           </cell>
           <cell r="G39">
-            <v>1039.2950000000001</v>
+            <v>124.4</v>
           </cell>
           <cell r="H39">
             <v>1</v>
           </cell>
           <cell r="I39">
-            <v>55</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>230  Колбаса Молочная Особая ТМ Особый рецепт, п/а, ВЕС. ПОКОМ</v>
+            <v>263  Шпикачки Стародворские, ВЕС.  ПОКОМ</v>
           </cell>
           <cell r="B40" t="str">
             <v>кг</v>
           </cell>
-          <cell r="D40">
-            <v>3808.6759999999999</v>
-          </cell>
           <cell r="E40">
-            <v>3584.2710000000002</v>
+            <v>15.483000000000001</v>
           </cell>
           <cell r="F40">
-            <v>3280.4349999999999</v>
+            <v>7.569</v>
           </cell>
           <cell r="G40">
-            <v>3717.3330000000001</v>
+            <v>7.9139999999999997</v>
           </cell>
           <cell r="H40">
             <v>1</v>
           </cell>
           <cell r="I40">
-            <v>60</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>235  Колбаса Особая ТМ Особый рецепт, ВЕС, ТМ Стародворье ПОКОМ</v>
+            <v>265  Колбаса Балыкбургская, ВЕС, ТМ Баварушка  ПОКОМ</v>
           </cell>
           <cell r="B41" t="str">
             <v>кг</v>
           </cell>
           <cell r="D41">
-            <v>2172.9749999999999</v>
+            <v>987.57600000000002</v>
           </cell>
           <cell r="F41">
-            <v>1535.251</v>
+            <v>491.57400000000001</v>
           </cell>
           <cell r="G41">
-            <v>77.965000000000003</v>
+            <v>406.09500000000003</v>
           </cell>
           <cell r="H41">
             <v>1</v>
           </cell>
           <cell r="I41">
-            <v>60</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>236  Колбаса Рубленая ЗАПЕЧ. Дугушка ТМ Стародворье, вектор, в/к    ПОКОМ</v>
+            <v>266  Колбаса Филейбургская с сочным окороком, ВЕС, ТМ Баварушка  ПОКОМ</v>
           </cell>
           <cell r="B42" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C42" t="str">
-            <v>Нояб</v>
-          </cell>
           <cell r="D42">
-            <v>593.01499999999999</v>
-          </cell>
-          <cell r="E42">
-            <v>225.13499999999999</v>
+            <v>536.09</v>
           </cell>
           <cell r="F42">
-            <v>94.277000000000001</v>
+            <v>394.66199999999998</v>
           </cell>
           <cell r="G42">
-            <v>163.73500000000001</v>
+            <v>61.26</v>
           </cell>
           <cell r="H42">
             <v>1</v>
           </cell>
           <cell r="I42">
-            <v>60</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>239  Колбаса Салями запеч Дугушка, оболочка вектор, ВЕС, ТМ Стародворье  ПОКОМ</v>
+            <v>271  Колбаса Сервелат Левантский ТМ Особый Рецепт, ВЕС. ПОКОМ</v>
           </cell>
           <cell r="B43" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C43" t="str">
-            <v>Нояб</v>
-          </cell>
-          <cell r="D43">
-            <v>176.84899999999999</v>
-          </cell>
           <cell r="E43">
-            <v>555.005</v>
+            <v>13.009</v>
           </cell>
           <cell r="F43">
-            <v>159.03200000000001</v>
+            <v>13.02</v>
           </cell>
           <cell r="G43">
-            <v>498.85599999999999</v>
+            <v>-1.0999999999999999E-2</v>
           </cell>
           <cell r="H43">
             <v>1</v>
           </cell>
           <cell r="I43">
-            <v>60</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>240  Колбаса Салями охотничья, ВЕС. ПОКОМ</v>
+            <v>273  Сосиски Сочинки с сочной грудинкой, МГС 0.4кг,   ПОКОМ</v>
           </cell>
           <cell r="B44" t="str">
-            <v>кг</v>
+            <v>шт</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>Нояб</v>
           </cell>
           <cell r="D44">
-            <v>22.945</v>
-          </cell>
-          <cell r="E44">
-            <v>14.019</v>
+            <v>564</v>
           </cell>
           <cell r="F44">
-            <v>11.372999999999999</v>
+            <v>437</v>
           </cell>
           <cell r="G44">
-            <v>20.672999999999998</v>
+            <v>127</v>
           </cell>
           <cell r="H44">
-            <v>1</v>
+            <v>0.4</v>
           </cell>
           <cell r="I44">
-            <v>180</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>242  Колбаса Сервелат ЗАПЕЧ.Дугушка ТМ Стародворье, вектор, в/к     ПОКОМ</v>
+            <v>276  Колбаса Сливушка ТМ Вязанка в оболочке полиамид 0,45 кг  ПОКОМ</v>
           </cell>
           <cell r="B45" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C45" t="str">
-            <v>Нояб</v>
-          </cell>
-          <cell r="D45">
-            <v>483.904</v>
+            <v>шт</v>
           </cell>
           <cell r="E45">
-            <v>907.47699999999998</v>
+            <v>10</v>
           </cell>
           <cell r="F45">
-            <v>445.58</v>
-          </cell>
-          <cell r="G45">
-            <v>808.97900000000004</v>
+            <v>10</v>
           </cell>
           <cell r="H45">
-            <v>1</v>
+            <v>0.45</v>
           </cell>
           <cell r="I45">
-            <v>60</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>243  Колбаса Сервелат Зернистый, ВЕС.  ПОКОМ</v>
+            <v>301  Сосиски Сочинки по-баварски с сыром,  0.4кг, ТМ Стародворье  ПОКОМ</v>
           </cell>
           <cell r="B46" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="D46">
-            <v>137.44999999999999</v>
-          </cell>
-          <cell r="E46">
-            <v>1.153</v>
-          </cell>
-          <cell r="F46">
-            <v>52.173000000000002</v>
-          </cell>
-          <cell r="G46">
-            <v>73.2</v>
+            <v>шт</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>Нояб</v>
           </cell>
           <cell r="H46">
-            <v>1</v>
+            <v>0.4</v>
           </cell>
           <cell r="I46">
-            <v>35</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>244  Колбаса Сервелат Кремлевский, ВЕС. ПОКОМ</v>
+            <v>302  Сосиски Сочинки по-баварски,  0.4кг, ТМ Стародворье  ПОКОМ</v>
           </cell>
           <cell r="B47" t="str">
-            <v>кг</v>
+            <v>шт</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>Нояб</v>
           </cell>
           <cell r="D47">
-            <v>7.024</v>
+            <v>612</v>
           </cell>
           <cell r="F47">
-            <v>2.1320000000000001</v>
+            <v>343</v>
+          </cell>
+          <cell r="G47">
+            <v>252</v>
           </cell>
           <cell r="H47">
-            <v>1</v>
+            <v>0.4</v>
           </cell>
           <cell r="I47">
-            <v>40</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>247  Сардельки Нежные, ВЕС.  ПОКОМ</v>
+            <v>309  Сосиски Сочинки с сыром 0,4 кг ТМ Стародворье  ПОКОМ</v>
           </cell>
           <cell r="B48" t="str">
-            <v>кг</v>
+            <v>шт</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>Нояб</v>
           </cell>
           <cell r="D48">
-            <v>143.458</v>
+            <v>65</v>
           </cell>
           <cell r="F48">
-            <v>34.613999999999997</v>
+            <v>41</v>
+          </cell>
+          <cell r="G48">
+            <v>-32</v>
           </cell>
           <cell r="H48">
-            <v>1</v>
+            <v>0.4</v>
           </cell>
           <cell r="I48">
-            <v>30</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>248  Сардельки Сочные ТМ Особый рецепт,   ПОКОМ</v>
+            <v>312  Ветчина Филейская ТМ Вязанка ТС Столичная ВЕС  ПОКОМ</v>
           </cell>
           <cell r="B49" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C49" t="str">
+            <v>Нояб</v>
+          </cell>
           <cell r="D49">
-            <v>372.779</v>
-          </cell>
-          <cell r="E49">
-            <v>191.95699999999999</v>
+            <v>22.927</v>
           </cell>
           <cell r="F49">
-            <v>397.23200000000003</v>
-          </cell>
-          <cell r="G49">
-            <v>144.89400000000001</v>
+            <v>5.6120000000000001</v>
           </cell>
           <cell r="H49">
             <v>1</v>
           </cell>
           <cell r="I49">
-            <v>30</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>250  Сардельки стародворские с говядиной в обол. NDX, ВЕС. ПОКОМ</v>
+            <v>313 Колбаса вареная Молокуша ТМ Вязанка в оболочке полиамид. ВЕС  ПОКОМ</v>
           </cell>
           <cell r="B50" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C50" t="str">
+            <v>Нояб</v>
+          </cell>
           <cell r="D50">
-            <v>471.73500000000001</v>
-          </cell>
-          <cell r="E50">
-            <v>307.17200000000003</v>
+            <v>78.084000000000003</v>
           </cell>
           <cell r="F50">
-            <v>329.59500000000003</v>
+            <v>66.224000000000004</v>
           </cell>
           <cell r="G50">
-            <v>382.178</v>
+            <v>-5.6959999999999997</v>
           </cell>
           <cell r="H50">
             <v>1</v>
           </cell>
           <cell r="I50">
-            <v>30</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>253  Сосиски Ганноверские   ПОКОМ</v>
+            <v>314 Колбаса вареная Филейская ТМ Вязанка ТС Классическая в оболочке полиамид.  ПОКОМ</v>
           </cell>
           <cell r="B51" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C51" t="str">
+            <v>Нояб</v>
+          </cell>
           <cell r="D51">
-            <v>47.530999999999999</v>
+            <v>66.331999999999994</v>
           </cell>
           <cell r="E51">
-            <v>1.7999999999999999E-2</v>
+            <v>2.1999999999999999E-2</v>
           </cell>
           <cell r="F51">
-            <v>12.167</v>
+            <v>96.564999999999998</v>
           </cell>
           <cell r="G51">
-            <v>31.327000000000002</v>
+            <v>32.489999999999995</v>
           </cell>
           <cell r="H51">
             <v>1</v>
           </cell>
           <cell r="I51">
-            <v>40</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>254  Сосиски Датские, ВЕС, ТМ КОЛБАСНЫЙ СТАНДАРТ ПОКОМ</v>
+            <v>318 Сосиски Датские ТМ Зареченские колбасы ТС Зареченские п полиамид в модифициров  ПОКОМ</v>
           </cell>
           <cell r="B52" t="str">
             <v>кг</v>
           </cell>
           <cell r="D52">
-            <v>9.4410000000000007</v>
+            <v>483.49299999999999</v>
           </cell>
           <cell r="E52">
-            <v>62.234999999999999</v>
+            <v>7.7</v>
           </cell>
           <cell r="F52">
-            <v>3.9860000000000002</v>
+            <v>353.73200000000003</v>
           </cell>
           <cell r="G52">
-            <v>67.69</v>
+            <v>114.22499999999999</v>
           </cell>
           <cell r="H52">
             <v>1</v>
@@ -6871,100 +6820,88 @@
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>255  Сосиски Молочные для завтрака ТМ Особый рецепт, п/а МГС, ВЕС, ТМ Стародворье  ПОКОМ</v>
+            <v>320  Сосиски Сочинки с сочным окороком 0,4 кг ТМ Стародворье  ПОКОМ</v>
           </cell>
           <cell r="B53" t="str">
-            <v>кг</v>
+            <v>шт</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>Нояб</v>
           </cell>
           <cell r="D53">
-            <v>1406.2339999999999</v>
-          </cell>
-          <cell r="E53">
-            <v>1302.8150000000001</v>
+            <v>654</v>
           </cell>
           <cell r="F53">
-            <v>981.54399999999998</v>
+            <v>420</v>
           </cell>
           <cell r="G53">
-            <v>1470.501</v>
+            <v>234</v>
           </cell>
           <cell r="H53">
-            <v>1</v>
+            <v>0.4</v>
           </cell>
           <cell r="I53">
-            <v>40</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>257  Сосиски Молочные оригинальные ТМ Особый рецепт, ВЕС.   ПОКОМ</v>
+            <v>323 Колбаса варенокопченая Балыкбургская рубленая ТМ Баварушка срез 0,35 кг   ПОКОМ</v>
           </cell>
           <cell r="B54" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="D54">
-            <v>75.936000000000007</v>
+            <v>шт</v>
+          </cell>
+          <cell r="E54">
+            <v>6</v>
           </cell>
           <cell r="F54">
-            <v>7.86</v>
-          </cell>
-          <cell r="G54">
-            <v>68.031000000000006</v>
+            <v>6</v>
           </cell>
           <cell r="H54">
-            <v>1</v>
+            <v>0.35</v>
           </cell>
           <cell r="I54">
-            <v>35</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>266  Колбаса Филейбургская с сочным окороком, ВЕС, ТМ Баварушка  ПОКОМ</v>
+            <v>343 Колбаса Докторская оригинальная ТМ Особый рецепт в оболочке полиамид 0,4 кг.  ПОКОМ</v>
           </cell>
           <cell r="B55" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="D55">
-            <v>64.254999999999995</v>
+            <v>шт</v>
           </cell>
           <cell r="E55">
-            <v>4.5999999999999999E-2</v>
+            <v>10</v>
           </cell>
           <cell r="F55">
-            <v>60.029000000000003</v>
+            <v>6</v>
           </cell>
           <cell r="G55">
-            <v>4.2720000000000002</v>
+            <v>4</v>
           </cell>
           <cell r="H55">
-            <v>1</v>
+            <v>0.4</v>
           </cell>
           <cell r="I55">
-            <v>45</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>267  Колбаса Салями Филейбургская зернистая, оболочка фиброуз, ВЕС, ТМ Баварушка  ПОКОМ</v>
+            <v>346 Колбаса Сервелат Филейбургский с копченой грудинкой ТМ Баварушка в оболов/у 0,35 кг срез  ПОКОМ</v>
           </cell>
           <cell r="B56" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="D56">
-            <v>50.246000000000002</v>
+            <v>шт</v>
           </cell>
           <cell r="E56">
-            <v>103.666</v>
+            <v>6</v>
           </cell>
           <cell r="F56">
-            <v>28.802</v>
-          </cell>
-          <cell r="G56">
-            <v>104.345</v>
+            <v>6</v>
           </cell>
           <cell r="H56">
-            <v>1</v>
+            <v>0.35</v>
           </cell>
           <cell r="I56">
             <v>45</v>
@@ -6972,33 +6909,27 @@
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>272  Колбаса Сервелат Филедворский, фиброуз, в/у 0,35 кг срез,  ПОКОМ</v>
+            <v>347 Паштет печеночный со сливочным маслом ТМ Стародворье ламистер 0,1 кг. Консервы   ПОКОМ</v>
           </cell>
           <cell r="B57" t="str">
             <v>шт</v>
           </cell>
-          <cell r="D57">
-            <v>41</v>
-          </cell>
           <cell r="E57">
-            <v>177</v>
+            <v>20</v>
           </cell>
           <cell r="F57">
-            <v>23</v>
-          </cell>
-          <cell r="G57">
-            <v>174</v>
+            <v>20</v>
           </cell>
           <cell r="H57">
-            <v>0.35</v>
+            <v>0.1</v>
           </cell>
           <cell r="I57">
-            <v>40</v>
+            <v>730</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>273  Сосиски Сочинки с сочной грудинкой, МГС 0.4кг,   ПОКОМ</v>
+            <v>352  Сардельки Сочинки с сыром 0,4 кг ТМ Стародворье   ПОКОМ</v>
           </cell>
           <cell r="B58" t="str">
             <v>шт</v>
@@ -7007,131 +6938,119 @@
             <v>Нояб</v>
           </cell>
           <cell r="D58">
-            <v>441</v>
-          </cell>
-          <cell r="E58">
-            <v>768</v>
+            <v>64</v>
           </cell>
           <cell r="F58">
-            <v>398</v>
+            <v>37</v>
           </cell>
           <cell r="G58">
-            <v>705</v>
+            <v>-7</v>
           </cell>
           <cell r="H58">
             <v>0.4</v>
           </cell>
           <cell r="I58">
-            <v>45</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>276  Колбаса Сливушка ТМ Вязанка в оболочке полиамид 0,45 кг  ПОКОМ</v>
+            <v>355 Сос Молочные для завтрака ОР полиамид мгс 0,4 кг НД СК  ПОКОМ</v>
           </cell>
           <cell r="B59" t="str">
             <v>шт</v>
           </cell>
-          <cell r="D59">
-            <v>102</v>
-          </cell>
           <cell r="E59">
-            <v>30</v>
+            <v>6</v>
           </cell>
           <cell r="F59">
-            <v>39</v>
-          </cell>
-          <cell r="G59">
-            <v>80</v>
+            <v>6</v>
           </cell>
           <cell r="H59">
-            <v>0.45</v>
+            <v>0.4</v>
           </cell>
           <cell r="I59">
-            <v>50</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>283  Сосиски Сочинки, ВЕС, ТМ Стародворье ПОКОМ</v>
+            <v>360 Колбаса варено-копченая  Сервелат Левантский ТМ Особый Рецепт  0,35 кг  ПОКОМ</v>
           </cell>
           <cell r="B60" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="D60">
-            <v>619.17499999999995</v>
+            <v>шт</v>
+          </cell>
+          <cell r="E60">
+            <v>8</v>
           </cell>
           <cell r="F60">
-            <v>252.185</v>
+            <v>6</v>
           </cell>
           <cell r="G60">
-            <v>323.34800000000001</v>
+            <v>2</v>
           </cell>
           <cell r="H60">
-            <v>1</v>
+            <v>0.35</v>
           </cell>
           <cell r="I60">
-            <v>45</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>296  Колбаса Мясорубская с рубленой грудинкой 0,35кг срез ТМ Стародворье  ПОКОМ</v>
+            <v>369 Колбаса Сливушка ТМ Вязанка в оболочке полиамид вес.  ПОКОМ</v>
           </cell>
           <cell r="B61" t="str">
-            <v>шт</v>
+            <v>кг</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>Нояб</v>
           </cell>
           <cell r="D61">
-            <v>65</v>
-          </cell>
-          <cell r="E61">
-            <v>248</v>
+            <v>98.506</v>
           </cell>
           <cell r="F61">
-            <v>55</v>
+            <v>87.174000000000007</v>
           </cell>
           <cell r="G61">
-            <v>241</v>
+            <v>7.298</v>
           </cell>
           <cell r="H61">
-            <v>0.35</v>
+            <v>1</v>
           </cell>
           <cell r="I61">
-            <v>40</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>301  Сосиски Сочинки по-баварски с сыром,  0.4кг, ТМ Стародворье  ПОКОМ</v>
+            <v>370 Ветчина Сливушка с индейкой ТМ Вязанка в оболочке полиамид.</v>
           </cell>
           <cell r="B62" t="str">
-            <v>шт</v>
+            <v>кг</v>
           </cell>
           <cell r="C62" t="str">
             <v>Нояб</v>
           </cell>
           <cell r="D62">
-            <v>469</v>
-          </cell>
-          <cell r="E62">
-            <v>768</v>
+            <v>21.785</v>
           </cell>
           <cell r="F62">
-            <v>435</v>
+            <v>23.026</v>
           </cell>
           <cell r="G62">
-            <v>714</v>
+            <v>-17.666</v>
           </cell>
           <cell r="H62">
-            <v>0.4</v>
+            <v>1</v>
           </cell>
           <cell r="I62">
-            <v>40</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>302  Сосиски Сочинки по-баварски,  0.4кг, ТМ Стародворье  ПОКОМ</v>
+            <v>371  Сосиски Сочинки Молочные 0,4 кг ТМ Стародворье  ПОКОМ</v>
           </cell>
           <cell r="B63" t="str">
             <v>шт</v>
@@ -7140,27 +7059,24 @@
             <v>Нояб</v>
           </cell>
           <cell r="D63">
-            <v>989</v>
-          </cell>
-          <cell r="E63">
-            <v>1890</v>
+            <v>450</v>
           </cell>
           <cell r="F63">
-            <v>1660</v>
+            <v>346</v>
           </cell>
           <cell r="G63">
-            <v>1029</v>
+            <v>104</v>
           </cell>
           <cell r="H63">
             <v>0.4</v>
           </cell>
           <cell r="I63">
-            <v>45</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>309  Сосиски Сочинки с сыром 0,4 кг ТМ Стародворье  ПОКОМ</v>
+            <v>372  Сосиски Сочинки Сливочные 0,4 кг ТМ Стародворье  ПОКОМ</v>
           </cell>
           <cell r="B64" t="str">
             <v>шт</v>
@@ -7169,16 +7085,13 @@
             <v>Нояб</v>
           </cell>
           <cell r="D64">
-            <v>105</v>
-          </cell>
-          <cell r="E64">
-            <v>84</v>
+            <v>523</v>
           </cell>
           <cell r="F64">
-            <v>101</v>
+            <v>352</v>
           </cell>
           <cell r="G64">
-            <v>73</v>
+            <v>79</v>
           </cell>
           <cell r="H64">
             <v>0.4</v>
@@ -7189,106 +7102,76 @@
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>312  Ветчина Филейская ТМ Вязанка ТС Столичная ВЕС  ПОКОМ</v>
+            <v>376  Сардельки Сочинки с сочным окороком ТМ Стародворье полиамид мгс ф/в 0,4 кг СК3</v>
           </cell>
           <cell r="B65" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C65" t="str">
-            <v>Нояб</v>
-          </cell>
-          <cell r="D65">
-            <v>115.8</v>
-          </cell>
-          <cell r="E65">
-            <v>10.923999999999999</v>
+            <v>шт</v>
           </cell>
           <cell r="F65">
-            <v>62.277000000000001</v>
+            <v>1</v>
           </cell>
           <cell r="G65">
-            <v>87.563000000000002</v>
+            <v>-1</v>
           </cell>
           <cell r="H65">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="I65">
-            <v>50</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>313 Колбаса вареная Молокуша ТМ Вязанка в оболочке полиамид. ВЕС  ПОКОМ</v>
+            <v>381  Сардельки Сочинки 0,4кг ТМ Стародворье  ПОКОМ</v>
           </cell>
           <cell r="B66" t="str">
-            <v>кг</v>
+            <v>шт</v>
           </cell>
           <cell r="C66" t="str">
             <v>Нояб</v>
           </cell>
           <cell r="D66">
-            <v>305.83999999999997</v>
-          </cell>
-          <cell r="E66">
-            <v>347.29</v>
+            <v>138</v>
           </cell>
           <cell r="F66">
-            <v>251.68</v>
+            <v>130</v>
           </cell>
           <cell r="G66">
-            <v>316.07499999999999</v>
+            <v>-14</v>
           </cell>
           <cell r="H66">
-            <v>1</v>
+            <v>0.4</v>
           </cell>
           <cell r="I66">
-            <v>50</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>314 Колбаса вареная Филейская ТМ Вязанка ТС Классическая в оболочке полиамид.  ПОКОМ</v>
+            <v>383 Колбаса Сочинка по-европейски с сочной грудиной ТМ Стародворье в оболочке фиброуз в ва  Поком</v>
           </cell>
           <cell r="B67" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C67" t="str">
-            <v>Нояб</v>
-          </cell>
           <cell r="D67">
-            <v>697.46799999999996</v>
-          </cell>
-          <cell r="F67">
-            <v>175.02799999999999</v>
-          </cell>
-          <cell r="G67">
-            <v>613.428</v>
+            <v>5.0620000000000003</v>
           </cell>
           <cell r="H67">
             <v>1</v>
           </cell>
           <cell r="I67">
-            <v>55</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>318 Сосиски Датские ТМ Зареченские колбасы ТС Зареченские п полиамид в модифициров  ПОКОМ</v>
+            <v>384  Колбаса Сочинка по-фински с сочным окороком ТМ Стародворье в оболочке фиброуз в ва  Поком</v>
           </cell>
           <cell r="B68" t="str">
             <v>кг</v>
           </cell>
           <cell r="D68">
-            <v>736.79300000000001</v>
-          </cell>
-          <cell r="E68">
-            <v>0.21199999999999999</v>
-          </cell>
-          <cell r="F68">
-            <v>145.12700000000001</v>
-          </cell>
-          <cell r="G68">
-            <v>577.99300000000005</v>
+            <v>22.087</v>
           </cell>
           <cell r="H68">
             <v>1</v>
@@ -7299,454 +7182,403 @@
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>320  Сосиски Сочинки с сочным окороком 0,4 кг ТМ Стародворье  ПОКОМ</v>
+            <v>389 Колбаса вареная Мусульманская Халяль ТМ Вязанка Халяль оболочка вектор 0,4 кг АК.  Поком</v>
           </cell>
           <cell r="B69" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C69" t="str">
-            <v>Нояб</v>
-          </cell>
           <cell r="D69">
-            <v>119</v>
+            <v>115</v>
           </cell>
           <cell r="E69">
-            <v>516</v>
+            <v>24</v>
           </cell>
           <cell r="F69">
-            <v>68</v>
+            <v>44</v>
           </cell>
           <cell r="G69">
-            <v>497</v>
+            <v>67</v>
           </cell>
           <cell r="H69">
             <v>0.4</v>
           </cell>
           <cell r="I69">
-            <v>45</v>
+            <v>90</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>325 Колбаса Сервелат Мясорубский ТМ Стародворье с мелкорубленным окороком 0,35 кг  ПОКОМ</v>
+            <v>390 Сосиски Восточные Халяль ТМ Вязанка в оболочке полиамид в вакуумной упаковке 0,33 кг  Поком</v>
           </cell>
           <cell r="B70" t="str">
             <v>шт</v>
           </cell>
+          <cell r="D70">
+            <v>189</v>
+          </cell>
           <cell r="E70">
-            <v>42</v>
+            <v>8</v>
           </cell>
           <cell r="F70">
-            <v>4</v>
+            <v>58</v>
           </cell>
           <cell r="G70">
-            <v>38</v>
+            <v>106</v>
           </cell>
           <cell r="H70">
-            <v>0.35</v>
+            <v>0.33</v>
           </cell>
           <cell r="I70">
-            <v>40</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>340 Ветчина Запекуша с сочным окороком ТМ Стародворские колбасы ТС Вязанка в обо 0,42 кг. ПОКОМ</v>
+            <v>405 Ветчины пастеризованная «Нежная с филе» Фикс.вес 0,4 п/а ТМ «Особый рецепт»  Поком</v>
           </cell>
           <cell r="B71" t="str">
             <v>шт</v>
           </cell>
-          <cell r="D71">
-            <v>30</v>
+          <cell r="E71">
+            <v>20</v>
           </cell>
           <cell r="F71">
-            <v>30</v>
+            <v>20</v>
           </cell>
           <cell r="H71">
-            <v>0</v>
+            <v>0.4</v>
           </cell>
           <cell r="I71">
-            <v>45</v>
+            <v>90</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>343 Колбаса Докторская оригинальная ТМ Особый рецепт в оболочке полиамид 0,4 кг.  ПОКОМ</v>
+            <v>406 Ветчины Сливушка с индейкой Вязанка Фикс.вес 0,4 П/а Вязанка  Поком</v>
           </cell>
           <cell r="B72" t="str">
             <v>шт</v>
           </cell>
-          <cell r="D72">
-            <v>260</v>
-          </cell>
           <cell r="E72">
-            <v>250</v>
+            <v>12</v>
           </cell>
           <cell r="F72">
-            <v>510</v>
+            <v>7</v>
+          </cell>
+          <cell r="G72">
+            <v>5</v>
           </cell>
           <cell r="H72">
-            <v>0</v>
+            <v>0.4</v>
           </cell>
           <cell r="I72">
-            <v>60</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>344 Колбаса Салями Финская ТМ Стародворски колбасы ТС Вязанка в оболочке фиброуз в вак 0,35 кг ПОКОМ</v>
+            <v>408 Вареные колбасы Сливушка Вязанка Фикс.вес 0,375 П/а Вязанка  Поком</v>
           </cell>
           <cell r="B73" t="str">
             <v>шт</v>
           </cell>
-          <cell r="D73">
-            <v>40</v>
+          <cell r="E73">
+            <v>10</v>
           </cell>
           <cell r="F73">
-            <v>40</v>
+            <v>7</v>
+          </cell>
+          <cell r="G73">
+            <v>3</v>
           </cell>
           <cell r="H73">
-            <v>0</v>
+            <v>0.375</v>
           </cell>
           <cell r="I73">
-            <v>40</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>346 Колбаса Сервелат Филейбургский с копченой грудинкой ТМ Баварушка в оболов/у 0,35 кг срез  ПОКОМ</v>
+            <v>409 Вареные колбасы Молокуша Вязанка Фикс.вес 0,4 п/а Вязанка  Поком</v>
           </cell>
           <cell r="B74" t="str">
             <v>шт</v>
           </cell>
-          <cell r="D74">
-            <v>42</v>
-          </cell>
           <cell r="E74">
-            <v>43</v>
+            <v>10</v>
           </cell>
           <cell r="F74">
-            <v>85</v>
+            <v>10</v>
           </cell>
           <cell r="H74">
-            <v>0</v>
+            <v>0.4</v>
           </cell>
           <cell r="I74">
-            <v>45</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>347 Паштет печеночный со сливочным маслом ТМ Стародворье ламистер 0,1 кг. Консервы   ПОКОМ</v>
+            <v>410 В/к колбасы Сервелат Запекуша с говядиной Вязанка Весовые П/а Вязанка  Поком</v>
           </cell>
           <cell r="B75" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="D75">
-            <v>60</v>
+            <v>кг</v>
           </cell>
           <cell r="E75">
-            <v>300</v>
+            <v>14.281000000000001</v>
           </cell>
           <cell r="F75">
-            <v>360</v>
+            <v>14.281000000000001</v>
           </cell>
           <cell r="H75">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="I75">
-            <v>730</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>350 Сосиски Молокуши миникушай ТМ Вязанка в оболочке амицел в модифиц газовой среде 0,45 кг  Поком</v>
+            <v>412 Вареные колбасы «Молочная с нежным филе» Фикс.вес 0,4 кг п/а ТМ «Особый рецепт»  Поком</v>
           </cell>
           <cell r="B76" t="str">
             <v>шт</v>
           </cell>
-          <cell r="D76">
-            <v>120</v>
-          </cell>
           <cell r="E76">
-            <v>96</v>
+            <v>20</v>
           </cell>
           <cell r="F76">
-            <v>216</v>
+            <v>20</v>
           </cell>
           <cell r="H76">
-            <v>0</v>
+            <v>0.4</v>
           </cell>
           <cell r="I76">
-            <v>45</v>
+            <v>90</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>351 Сосиски Филейбургские с грудкой ТМ Баварушка в оболо амицел в моди газовой среде 0,33 кг  Поком</v>
+            <v>413 Вареные колбасы пастеризованн «Стародворская без шпика» Фикс.вес 0,4 п/а ТМ «Стародворье»  Поком</v>
           </cell>
           <cell r="B77" t="str">
             <v>шт</v>
           </cell>
-          <cell r="D77">
-            <v>42</v>
+          <cell r="E77">
+            <v>10</v>
           </cell>
           <cell r="F77">
-            <v>42</v>
+            <v>10</v>
           </cell>
           <cell r="H77">
-            <v>0</v>
+            <v>0.4</v>
           </cell>
           <cell r="I77">
-            <v>45</v>
+            <v>90</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>352  Сардельки Сочинки с сыром 0,4 кг ТМ Стародворье   ПОКОМ</v>
+            <v>414 Вареные колбасы Молочная По-стародворски Фирменная Фикс.вес 0,5 П/а Стародворье  Поком</v>
           </cell>
           <cell r="B78" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C78" t="str">
-            <v>Нояб</v>
-          </cell>
-          <cell r="D78">
-            <v>416</v>
-          </cell>
           <cell r="E78">
-            <v>156</v>
+            <v>6</v>
           </cell>
           <cell r="F78">
-            <v>434</v>
-          </cell>
-          <cell r="G78">
-            <v>74</v>
+            <v>6</v>
           </cell>
           <cell r="H78">
-            <v>0.4</v>
+            <v>0.5</v>
           </cell>
           <cell r="I78">
-            <v>40</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>355 Сос Молочные для завтрака ОР полиамид мгс 0,4 кг НД СК  ПОКОМ</v>
+            <v>415 Вареные колбасы Докторская ГОСТ Золоченная в печи Весовые ц/о в/у Стародворье  Поком</v>
           </cell>
           <cell r="B79" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="D79">
-            <v>354</v>
+            <v>кг</v>
           </cell>
           <cell r="E79">
-            <v>204</v>
+            <v>10.753</v>
           </cell>
           <cell r="F79">
-            <v>558</v>
+            <v>8.0660000000000007</v>
+          </cell>
+          <cell r="G79">
+            <v>2.6869999999999998</v>
           </cell>
           <cell r="H79">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="I79">
-            <v>40</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>358 Колбаса Сервелат Мясорубский ТМ Стародворье с мелкорубленным окороком в вак упак  ПОКОМ</v>
+            <v>416 Вареные колбасы Докторская стародворская Золоченная в печи Весовые ц/о в/у Стародворье  Поком</v>
           </cell>
           <cell r="B80" t="str">
             <v>кг</v>
           </cell>
-          <cell r="D80">
-            <v>22.869</v>
+          <cell r="E80">
+            <v>16.047999999999998</v>
           </cell>
           <cell r="F80">
-            <v>8.5579999999999998</v>
-          </cell>
-          <cell r="G80">
-            <v>10.692</v>
+            <v>16.047999999999998</v>
           </cell>
           <cell r="H80">
             <v>1</v>
           </cell>
           <cell r="I80">
-            <v>40</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>360 Колбаса варено-копченая  Сервелат Левантский ТМ Особый Рецепт  0,35 кг  ПОКОМ</v>
+            <v>417 П/к колбасы «Сочинка рубленая с сочным окороком» Весовой фиброуз ТМ «Стародворье»  Поком</v>
           </cell>
           <cell r="B81" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="D81">
-            <v>6</v>
+            <v>кг</v>
+          </cell>
+          <cell r="E81">
+            <v>9.7439999999999998</v>
+          </cell>
+          <cell r="F81">
+            <v>7.3449999999999998</v>
+          </cell>
+          <cell r="G81">
+            <v>2.399</v>
           </cell>
           <cell r="H81">
-            <v>0.35</v>
+            <v>1</v>
           </cell>
           <cell r="I81">
-            <v>35</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82" t="str">
-            <v>361 Колбаса Салями Филейбургская зернистая ТМ Баварушка в оболочке  в вак 0.28кг ПОКОМ</v>
+            <v>418 С/к колбасы Мини-салями во вкусом бекона Ядрена копоть Фикс.вес 0,05 б/о Ядрена копоть  Поком</v>
           </cell>
           <cell r="B82" t="str">
             <v>шт</v>
           </cell>
-          <cell r="D82">
-            <v>23</v>
-          </cell>
           <cell r="E82">
-            <v>67</v>
+            <v>12</v>
           </cell>
           <cell r="F82">
-            <v>14</v>
-          </cell>
-          <cell r="G82">
-            <v>64</v>
+            <v>12</v>
           </cell>
           <cell r="H82">
-            <v>0.28000000000000003</v>
+            <v>0.05</v>
           </cell>
           <cell r="I82">
-            <v>45</v>
+            <v>120</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>363 Сардельки Филейские Вязанка ТМ Вязанка в обол NDX  ПОКОМ</v>
+            <v>419 Паштеты «Любительский ГОСТ» Фикс.вес 0,1 ТМ «Стародворье»  Поком</v>
           </cell>
           <cell r="B83" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="D83">
-            <v>115.961</v>
+            <v>шт</v>
           </cell>
           <cell r="E83">
-            <v>87.616</v>
+            <v>20</v>
           </cell>
           <cell r="F83">
-            <v>67.5</v>
-          </cell>
-          <cell r="G83">
-            <v>103.774</v>
+            <v>20</v>
           </cell>
           <cell r="H83">
-            <v>1</v>
+            <v>0.1</v>
           </cell>
           <cell r="I83">
-            <v>30</v>
+            <v>730</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>364 Колбаса Сервелат Филейбургский с копченой грудинкой ТМ Баварушка  в/у 0,28 кг  ПОКОМ</v>
+            <v>420 Паштеты «Печеночный с морковью ГОСТ» Фикс.вес 0,1 ТМ «Стародворье»  Поком</v>
           </cell>
           <cell r="B84" t="str">
             <v>шт</v>
           </cell>
-          <cell r="D84">
-            <v>69</v>
-          </cell>
           <cell r="E84">
-            <v>90</v>
+            <v>20</v>
           </cell>
           <cell r="F84">
-            <v>50</v>
-          </cell>
-          <cell r="G84">
-            <v>92</v>
+            <v>20</v>
           </cell>
           <cell r="H84">
-            <v>0.28000000000000003</v>
+            <v>0.1</v>
           </cell>
           <cell r="I84">
-            <v>45</v>
+            <v>730</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>369 Колбаса Сливушка ТМ Вязанка в оболочке полиамид вес.  ПОКОМ</v>
+            <v>421 Сардельки Сливушки #минидельки ТМ Вязанка айпил мгс ф/в 0,33 кг  Поком</v>
           </cell>
           <cell r="B85" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C85" t="str">
-            <v>Нояб</v>
-          </cell>
-          <cell r="D85">
-            <v>12.81</v>
+            <v>шт</v>
           </cell>
           <cell r="E85">
-            <v>97.212999999999994</v>
+            <v>6</v>
           </cell>
           <cell r="F85">
-            <v>10.84</v>
-          </cell>
-          <cell r="G85">
-            <v>86.373000000000005</v>
+            <v>6</v>
           </cell>
           <cell r="H85">
-            <v>1</v>
+            <v>0.33</v>
           </cell>
           <cell r="I85">
-            <v>50</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86" t="str">
-            <v>370 Ветчина Сливушка с индейкой ТМ Вязанка в оболочке полиамид.</v>
+            <v>422 Сардельки «Сливушки с сыром #минидельки» ф/в 0,33 айпил ТМ «Вязанка»  Поком</v>
           </cell>
           <cell r="B86" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C86" t="str">
-            <v>Нояб</v>
+            <v>шт</v>
           </cell>
           <cell r="E86">
-            <v>107.994</v>
-          </cell>
-          <cell r="G86">
-            <v>107.994</v>
+            <v>6</v>
+          </cell>
+          <cell r="F86">
+            <v>6</v>
           </cell>
           <cell r="H86">
-            <v>1</v>
+            <v>0.33</v>
           </cell>
           <cell r="I86">
-            <v>50</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>371  Сосиски Сочинки Молочные 0,4 кг ТМ Стародворье  ПОКОМ</v>
+            <v>423 Сосиски «Сливушки с сыром» ф/в 0,3 п/а ТМ «Вязанка»  Поком</v>
           </cell>
           <cell r="B87" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C87" t="str">
-            <v>Нояб</v>
-          </cell>
-          <cell r="D87">
-            <v>142</v>
-          </cell>
           <cell r="E87">
-            <v>520</v>
+            <v>6</v>
           </cell>
           <cell r="F87">
-            <v>109</v>
-          </cell>
-          <cell r="G87">
-            <v>482</v>
+            <v>6</v>
           </cell>
           <cell r="H87">
-            <v>0.4</v>
+            <v>0.3</v>
           </cell>
           <cell r="I87">
             <v>40</v>
@@ -7754,499 +7586,153 @@
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>372  Сосиски Сочинки Сливочные 0,4 кг ТМ Стародворье  ПОКОМ</v>
+            <v>424 Сосиски Сливочные Вязанка Сливушки Весовые П/а мгс Вязанка  Поком</v>
           </cell>
           <cell r="B88" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C88" t="str">
-            <v>Нояб</v>
-          </cell>
-          <cell r="D88">
-            <v>53</v>
+            <v>кг</v>
           </cell>
           <cell r="E88">
-            <v>391</v>
+            <v>8.1479999999999997</v>
           </cell>
           <cell r="F88">
-            <v>25</v>
+            <v>5.5119999999999996</v>
           </cell>
           <cell r="G88">
-            <v>365</v>
+            <v>2.6360000000000001</v>
           </cell>
           <cell r="H88">
-            <v>0.4</v>
+            <v>1</v>
           </cell>
           <cell r="I88">
-            <v>40</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>373 Ветчины «Филейская» Фикс.вес 0,45 Вектор ТМ «Вязанка»  Поком</v>
+            <v>425 Сосиски «Сочные без свинины» Весовые ТМ «Особый рецепт» 1,3 кг  Поком</v>
           </cell>
           <cell r="B89" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="D89">
-            <v>114</v>
+            <v>кг</v>
           </cell>
           <cell r="E89">
-            <v>73</v>
+            <v>8.2530000000000001</v>
           </cell>
           <cell r="F89">
-            <v>157</v>
-          </cell>
-          <cell r="G89">
-            <v>30</v>
+            <v>8.2530000000000001</v>
           </cell>
           <cell r="H89">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="I89">
-            <v>50</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>374  Сосиски Сочинки с сыром ф/в 0,3 кг п/а ТМ "Стародворье"  Поком</v>
+            <v>426 С/к колбасы Чипсы сыровяленые из натурального филе Ядрена копоть Фикс.вес 0,03 Поком</v>
           </cell>
           <cell r="B90" t="str">
             <v>шт</v>
           </cell>
-          <cell r="D90">
-            <v>84</v>
+          <cell r="E90">
+            <v>10</v>
           </cell>
           <cell r="F90">
-            <v>84</v>
+            <v>10</v>
           </cell>
           <cell r="H90">
-            <v>0</v>
+            <v>0.03</v>
           </cell>
           <cell r="I90">
-            <v>40</v>
+            <v>120</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v>375  Сосиски Сочинки по-баварски Бавария Фикс.вес 0,84 П/а мгс Стародворье</v>
+            <v>БОНУС_096  Сосиски Баварские,  0.42кг,ПОКОМ</v>
           </cell>
           <cell r="B91" t="str">
             <v>шт</v>
           </cell>
-          <cell r="D91">
-            <v>160</v>
-          </cell>
           <cell r="E91">
-            <v>88</v>
+            <v>19</v>
           </cell>
           <cell r="F91">
-            <v>248</v>
+            <v>103</v>
+          </cell>
+          <cell r="G91">
+            <v>-84</v>
           </cell>
           <cell r="H91">
             <v>0</v>
           </cell>
           <cell r="I91">
-            <v>45</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92" t="str">
-            <v>376  Сардельки Сочинки с сочным окороком ТМ Стародворье полиамид мгс ф/в 0,4 кг СК3</v>
+            <v>БОНУС_225  Колбаса Дугушка со шпиком, ВЕС, ТМ Стародворье   ПОКОМ</v>
           </cell>
           <cell r="B92" t="str">
-            <v>шт</v>
+            <v>кг</v>
           </cell>
           <cell r="D92">
-            <v>120</v>
-          </cell>
-          <cell r="E92">
-            <v>101</v>
-          </cell>
-          <cell r="F92">
-            <v>221</v>
+            <v>3.5179999999999998</v>
           </cell>
           <cell r="H92">
             <v>0</v>
           </cell>
           <cell r="I92">
-            <v>40</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93" t="str">
-            <v>377  Сосиски Сочинки по-баварски с сыром ТМ Стародворье полиамид мгс ф/в 0,84 кг СК3</v>
+            <v>БОНУС_229  Колбаса Молочная Дугушка, в/у, ВЕС, ТМ Стародворье   ПОКОМ</v>
           </cell>
           <cell r="B93" t="str">
-            <v>шт</v>
+            <v>кг</v>
           </cell>
           <cell r="D93">
-            <v>144</v>
+            <v>-14.135999999999999</v>
           </cell>
           <cell r="E93">
-            <v>52</v>
+            <v>33.850999999999999</v>
           </cell>
           <cell r="F93">
-            <v>196</v>
+            <v>38.734999999999999</v>
+          </cell>
+          <cell r="G93">
+            <v>-24.295999999999999</v>
           </cell>
           <cell r="H93">
             <v>0</v>
           </cell>
           <cell r="I93">
-            <v>40</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94" t="str">
-            <v>381  Сардельки Сочинки 0,4кг ТМ Стародворье  ПОКОМ</v>
+            <v>БОНУС_314 Колбаса вареная Филейская ТМ Вязанка ТС Классическая в оболочке полиамид.  ПОКОМ</v>
           </cell>
           <cell r="B94" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C94" t="str">
-            <v>Нояб</v>
+            <v>кг</v>
           </cell>
           <cell r="D94">
-            <v>83</v>
+            <v>71.096000000000004</v>
           </cell>
           <cell r="F94">
-            <v>22</v>
+            <v>36.054000000000002</v>
           </cell>
           <cell r="G94">
-            <v>52</v>
+            <v>33.628999999999998</v>
           </cell>
           <cell r="H94">
-            <v>0.4</v>
+            <v>0</v>
           </cell>
           <cell r="I94">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95" t="str">
-            <v>383 Колбаса Сочинка по-европейски с сочной грудиной ТМ Стародворье в оболочке фиброуз в ва  Поком</v>
-          </cell>
-          <cell r="B95" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="D95">
-            <v>59.771000000000001</v>
-          </cell>
-          <cell r="E95">
-            <v>260.733</v>
-          </cell>
-          <cell r="F95">
-            <v>48.390999999999998</v>
-          </cell>
-          <cell r="G95">
-            <v>254.21</v>
-          </cell>
-          <cell r="H95">
-            <v>1</v>
-          </cell>
-          <cell r="I95">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96" t="str">
-            <v>384  Колбаса Сочинка по-фински с сочным окороком ТМ Стародворье в оболочке фиброуз в ва  Поком</v>
-          </cell>
-          <cell r="B96" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="D96">
-            <v>73.900000000000006</v>
-          </cell>
-          <cell r="E96">
-            <v>83.278999999999996</v>
-          </cell>
-          <cell r="F96">
-            <v>51.576000000000001</v>
-          </cell>
-          <cell r="G96">
-            <v>91.138000000000005</v>
-          </cell>
-          <cell r="H96">
-            <v>1</v>
-          </cell>
-          <cell r="I96">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97" t="str">
-            <v>388 Колбаски Филейбургские ТМ Баварушка с филе сочного окорока копченые в оболоч 0,28 кг ПОКОМ</v>
-          </cell>
-          <cell r="B97" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="D97">
-            <v>9</v>
-          </cell>
-          <cell r="E97">
-            <v>4</v>
-          </cell>
-          <cell r="F97">
-            <v>7</v>
-          </cell>
-          <cell r="H97">
-            <v>0</v>
-          </cell>
-          <cell r="I97">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98" t="str">
-            <v>389 Колбаса вареная Мусульманская Халяль ТМ Вязанка Халяль оболочка вектор 0,4 кг АК.  Поком</v>
-          </cell>
-          <cell r="B98" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="D98">
-            <v>144</v>
-          </cell>
-          <cell r="E98">
-            <v>17</v>
-          </cell>
-          <cell r="F98">
-            <v>86</v>
-          </cell>
-          <cell r="G98">
-            <v>75</v>
-          </cell>
-          <cell r="H98">
-            <v>0.4</v>
-          </cell>
-          <cell r="I98">
-            <v>90</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99" t="str">
-            <v>390 Сосиски Восточные Халяль ТМ Вязанка в оболочке полиамид в вакуумной упаковке 0,33 кг  Поком</v>
-          </cell>
-          <cell r="B99" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="D99">
-            <v>176</v>
-          </cell>
-          <cell r="E99">
-            <v>104</v>
-          </cell>
-          <cell r="F99">
-            <v>163</v>
-          </cell>
-          <cell r="G99">
-            <v>117</v>
-          </cell>
-          <cell r="H99">
-            <v>0.33</v>
-          </cell>
-          <cell r="I99">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100" t="str">
-            <v>БОНУС_096  Сосиски Баварские,  0.42кг,ПОКОМ</v>
-          </cell>
-          <cell r="B100" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="D100">
-            <v>-71</v>
-          </cell>
-          <cell r="E100">
-            <v>228.2</v>
-          </cell>
-          <cell r="F100">
-            <v>84.2</v>
-          </cell>
-          <cell r="H100">
-            <v>0</v>
-          </cell>
-          <cell r="I100">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101" t="str">
-            <v>БОНУС_229  Колбаса Молочная Дугушка, в/у, ВЕС, ТМ Стародворье   ПОКОМ</v>
-          </cell>
-          <cell r="B101" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="D101">
-            <v>-84.462000000000003</v>
-          </cell>
-          <cell r="E101">
-            <v>248.28399999999999</v>
-          </cell>
-          <cell r="F101">
-            <v>90.912999999999997</v>
-          </cell>
-          <cell r="H101">
-            <v>0</v>
-          </cell>
-          <cell r="I101">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102" t="str">
-            <v>БОНУС_314 Колбаса вареная Филейская ТМ Вязанка ТС Классическая в оболочке полиамид.  ПОКОМ</v>
-          </cell>
-          <cell r="B102" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="D102">
-            <v>-10.875999999999999</v>
-          </cell>
-          <cell r="E102">
-            <v>71.876999999999995</v>
-          </cell>
-          <cell r="F102">
-            <v>48.832000000000001</v>
-          </cell>
-          <cell r="H102">
-            <v>0</v>
-          </cell>
-          <cell r="I102">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103" t="str">
-            <v>У_003   Колбаса Вязанка с индейкой, вектор ВЕС, ПОКОМ</v>
-          </cell>
-          <cell r="B103" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="D103">
-            <v>604</v>
-          </cell>
-          <cell r="E103">
-            <v>5.7510000000000003</v>
-          </cell>
-          <cell r="F103">
-            <v>28.244</v>
-          </cell>
-          <cell r="H103">
-            <v>0</v>
-          </cell>
-          <cell r="I103">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104" t="str">
-            <v>У_022  Колбаса Вязанка со шпиком, вектор 0,5кг, ПОКОМ</v>
-          </cell>
-          <cell r="B104" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="D104">
-            <v>12</v>
-          </cell>
-          <cell r="G104">
-            <v>8</v>
-          </cell>
-          <cell r="H104">
-            <v>0</v>
-          </cell>
-          <cell r="I104">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105" t="str">
-            <v>У_312  Ветчина Филейская ТМ Вязанка ТС Столичная ВЕС  ПОКОМ</v>
-          </cell>
-          <cell r="B105" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="D105">
-            <v>39.543999999999997</v>
-          </cell>
-          <cell r="F105">
-            <v>2.73</v>
-          </cell>
-          <cell r="G105">
-            <v>36.814</v>
-          </cell>
-          <cell r="H105">
-            <v>0</v>
-          </cell>
-          <cell r="I105">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106" t="str">
-            <v>У_314 Колбаса вареная Филейская ТМ Вязанка ТС Классическая в оболочке полиамид.  ПОКОМ</v>
-          </cell>
-          <cell r="B106" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="D106">
-            <v>192.82400000000001</v>
-          </cell>
-          <cell r="F106">
-            <v>31.797000000000001</v>
-          </cell>
-          <cell r="G106">
-            <v>158.94200000000001</v>
-          </cell>
-          <cell r="H106">
-            <v>0</v>
-          </cell>
-          <cell r="I106">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107" t="str">
-            <v>У_315 Колбаса Нежная ТМ Зареченские ТС Зареченские продукты в оболочкНТУ.  изделие вар  ПОКОМ</v>
-          </cell>
-          <cell r="B107" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="D107">
-            <v>1167.768</v>
-          </cell>
-          <cell r="E107">
-            <v>1.083</v>
-          </cell>
-          <cell r="F107">
-            <v>4.431</v>
-          </cell>
-          <cell r="H107">
-            <v>0</v>
-          </cell>
-          <cell r="I107">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108" t="str">
-            <v>У_370 Ветчина Сливушка с индейкой ТМ Вязанка в оболочке полиамид.</v>
-          </cell>
-          <cell r="B108" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="D108">
-            <v>409</v>
-          </cell>
-          <cell r="F108">
-            <v>27.402000000000001</v>
-          </cell>
-          <cell r="H108">
-            <v>0</v>
-          </cell>
-          <cell r="I108">
             <v>0</v>
           </cell>
         </row>
@@ -8317,10 +7803,10 @@
         </row>
         <row r="5">
           <cell r="F5">
-            <v>12042.583000000006</v>
+            <v>29789.739000000001</v>
           </cell>
           <cell r="G5">
-            <v>6305.6320000000005</v>
+            <v>25731.039999999997</v>
           </cell>
         </row>
         <row r="6">
@@ -8334,16 +7820,13 @@
             <v>Нояб</v>
           </cell>
           <cell r="D6">
-            <v>82.155000000000001</v>
-          </cell>
-          <cell r="E6">
-            <v>2.5000000000000001E-2</v>
+            <v>309.74700000000001</v>
           </cell>
           <cell r="F6">
-            <v>64.847999999999999</v>
+            <v>189.334</v>
           </cell>
           <cell r="G6">
-            <v>6.6120000000000001</v>
+            <v>77.504000000000005</v>
           </cell>
           <cell r="H6">
             <v>1</v>
@@ -8360,16 +7843,16 @@
             <v>кг</v>
           </cell>
           <cell r="D7">
-            <v>137.53100000000001</v>
+            <v>626.61800000000005</v>
           </cell>
           <cell r="E7">
-            <v>6.0000000000000001E-3</v>
+            <v>11.654</v>
           </cell>
           <cell r="F7">
-            <v>98.95</v>
+            <v>107.02500000000001</v>
           </cell>
           <cell r="G7">
-            <v>26.363</v>
+            <v>478.75700000000001</v>
           </cell>
           <cell r="H7">
             <v>1</v>
@@ -8386,16 +7869,16 @@
             <v>кг</v>
           </cell>
           <cell r="D8">
-            <v>78.334000000000003</v>
+            <v>588.65</v>
           </cell>
           <cell r="E8">
-            <v>5.0999999999999997E-2</v>
+            <v>74.441999999999993</v>
           </cell>
           <cell r="F8">
-            <v>77.66</v>
+            <v>273.86099999999999</v>
           </cell>
           <cell r="G8">
-            <v>-10.183</v>
+            <v>296.20800000000003</v>
           </cell>
           <cell r="H8">
             <v>1</v>
@@ -8411,11 +7894,17 @@
           <cell r="B9" t="str">
             <v>шт</v>
           </cell>
+          <cell r="D9">
+            <v>88</v>
+          </cell>
           <cell r="E9">
-            <v>10</v>
+            <v>80</v>
           </cell>
           <cell r="F9">
-            <v>10</v>
+            <v>37</v>
+          </cell>
+          <cell r="G9">
+            <v>111</v>
           </cell>
           <cell r="H9">
             <v>0.4</v>
@@ -8426,65 +7915,68 @@
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>030  Сосиски Вязанка Молочные, Вязанка вискофан МГС, 0.45кг, ПОКОМ</v>
+            <v>027  Колбаса Сервелат Столичный, Вязанка фиброуз в/у, 0.35кг, ПОКОМ</v>
           </cell>
           <cell r="B10" t="str">
             <v>шт</v>
           </cell>
           <cell r="D10">
-            <v>282</v>
+            <v>14</v>
           </cell>
           <cell r="F10">
-            <v>217</v>
-          </cell>
-          <cell r="G10">
-            <v>53</v>
+            <v>-1</v>
           </cell>
           <cell r="H10">
-            <v>0.45</v>
+            <v>0</v>
           </cell>
           <cell r="I10">
-            <v>45</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>032  Сосиски Вязанка Сливочные, Вязанка амицел МГС, 0.45кг, ПОКОМ</v>
+            <v>029  Сосиски Венские, Вязанка NDX МГС, 0.5кг, ПОКОМ</v>
           </cell>
           <cell r="B11" t="str">
             <v>шт</v>
           </cell>
           <cell r="D11">
-            <v>203</v>
+            <v>138</v>
+          </cell>
+          <cell r="E11">
+            <v>102</v>
           </cell>
           <cell r="F11">
-            <v>182</v>
-          </cell>
-          <cell r="G11">
-            <v>-11</v>
+            <v>240</v>
           </cell>
           <cell r="H11">
-            <v>0.45</v>
+            <v>0</v>
           </cell>
           <cell r="I11">
-            <v>45</v>
+            <v>31</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>036  Колбаса Сервелат Запекуша с сочным окороком, Вязанка 0,35кг,  ПОКОМ</v>
+            <v>030  Сосиски Вязанка Молочные, Вязанка вискофан МГС, 0.45кг, ПОКОМ</v>
           </cell>
           <cell r="B12" t="str">
             <v>шт</v>
           </cell>
+          <cell r="D12">
+            <v>320</v>
+          </cell>
           <cell r="E12">
-            <v>12</v>
+            <v>428</v>
           </cell>
           <cell r="F12">
-            <v>12</v>
+            <v>244</v>
+          </cell>
+          <cell r="G12">
+            <v>444</v>
           </cell>
           <cell r="H12">
-            <v>0.35</v>
+            <v>0.45</v>
           </cell>
           <cell r="I12">
             <v>45</v>
@@ -8492,65 +7984,74 @@
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>058  Колбаса Докторская Особая ТМ Особый рецепт,  0,5кг, ПОКОМ</v>
+            <v>032  Сосиски Вязанка Сливочные, Вязанка амицел МГС, 0.45кг, ПОКОМ</v>
           </cell>
           <cell r="B13" t="str">
             <v>шт</v>
           </cell>
+          <cell r="D13">
+            <v>959</v>
+          </cell>
           <cell r="E13">
-            <v>10</v>
+            <v>180</v>
           </cell>
           <cell r="F13">
-            <v>6</v>
+            <v>370</v>
           </cell>
           <cell r="G13">
-            <v>4</v>
+            <v>656</v>
           </cell>
           <cell r="H13">
-            <v>0.5</v>
+            <v>0.45</v>
           </cell>
           <cell r="I13">
-            <v>60</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>059  Колбаса Докторская по-стародворски  0.5 кг, ПОКОМ</v>
+            <v>036  Колбаса Сервелат Запекуша с сочным окороком, Вязанка 0,35кг,  ПОКОМ</v>
           </cell>
           <cell r="B14" t="str">
             <v>шт</v>
           </cell>
+          <cell r="D14">
+            <v>92</v>
+          </cell>
           <cell r="E14">
-            <v>10</v>
+            <v>1</v>
           </cell>
           <cell r="F14">
-            <v>6</v>
-          </cell>
-          <cell r="G14">
-            <v>4</v>
+            <v>-1</v>
           </cell>
           <cell r="H14">
-            <v>0.5</v>
+            <v>0.35</v>
           </cell>
           <cell r="I14">
-            <v>55</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>064  Колбаса Молочная Дугушка, вектор 0,4 кг, ТМ Стародворье  ПОКОМ</v>
+            <v>043  Ветчина Нежная ТМ Особый рецепт, п/а, 0,4кг    ПОКОМ</v>
           </cell>
           <cell r="B15" t="str">
             <v>шт</v>
           </cell>
+          <cell r="D15">
+            <v>285</v>
+          </cell>
           <cell r="E15">
-            <v>6</v>
+            <v>30</v>
           </cell>
           <cell r="F15">
-            <v>6</v>
+            <v>155</v>
+          </cell>
+          <cell r="G15">
+            <v>158</v>
           </cell>
           <cell r="H15">
-            <v>0.4</v>
+            <v>0</v>
           </cell>
           <cell r="I15">
             <v>50</v>
@@ -8558,404 +8059,404 @@
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>065  Колбаса Молочная по-стародворски, 0,5кг,ПОКОМ</v>
+            <v>047  Кол Баварская, белков.обол. в термоусад. пакете 0.17 кг, ТМ Стародворье  ПОКОМ</v>
           </cell>
           <cell r="B16" t="str">
             <v>шт</v>
           </cell>
-          <cell r="E16">
-            <v>10</v>
-          </cell>
-          <cell r="G16">
-            <v>4</v>
+          <cell r="D16">
+            <v>60</v>
+          </cell>
+          <cell r="F16">
+            <v>60</v>
           </cell>
           <cell r="H16">
-            <v>0.5</v>
+            <v>0</v>
           </cell>
           <cell r="I16">
-            <v>55</v>
+            <v>180</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>079  Колбаса Сервелат Кремлевский,  0.35 кг, ПОКОМ</v>
+            <v>054  Колбаса вареная Филейбургская с филе сочного окорока, 0,45 кг, БАВАРУШКА ПОКОМ</v>
           </cell>
           <cell r="B17" t="str">
             <v>шт</v>
           </cell>
+          <cell r="D17">
+            <v>24</v>
+          </cell>
           <cell r="E17">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="F17">
-            <v>6</v>
+            <v>25</v>
           </cell>
           <cell r="H17">
-            <v>0.35</v>
+            <v>0</v>
           </cell>
           <cell r="I17">
-            <v>40</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>082  Колбаса Стародворская, 0,4кг, ТС Старый двор  ПОКОМ</v>
+            <v>055  Колбаса вареная Филейбургская, 0,45 кг, БАВАРУШКА ПОКОМ</v>
           </cell>
           <cell r="B18" t="str">
             <v>шт</v>
           </cell>
           <cell r="D18">
-            <v>4</v>
-          </cell>
-          <cell r="G18">
-            <v>4</v>
+            <v>30</v>
+          </cell>
+          <cell r="F18">
+            <v>30</v>
           </cell>
           <cell r="H18">
             <v>0</v>
           </cell>
           <cell r="I18">
-            <v>55</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>096  Сосиски Баварские,  0.42кг,ПОКОМ</v>
+            <v>058  Колбаса Докторская Особая ТМ Особый рецепт,  0,5кг, ПОКОМ</v>
           </cell>
           <cell r="B19" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C19" t="str">
-            <v>бонус_Н</v>
-          </cell>
           <cell r="D19">
-            <v>120</v>
+            <v>116</v>
           </cell>
           <cell r="F19">
-            <v>175</v>
+            <v>43</v>
           </cell>
           <cell r="G19">
-            <v>-55</v>
+            <v>69</v>
           </cell>
           <cell r="H19">
-            <v>0.42</v>
+            <v>0.5</v>
           </cell>
           <cell r="I19">
-            <v>45</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>113  Чипсы сыровяленые из натурального филе, 0,025кг ТМ Ядрена Копоть ПОКОМ</v>
+            <v>059  Колбаса Докторская по-стародворски  0.5 кг, ПОКОМ</v>
           </cell>
           <cell r="B20" t="str">
             <v>шт</v>
           </cell>
+          <cell r="D20">
+            <v>408</v>
+          </cell>
           <cell r="E20">
-            <v>30</v>
-          </cell>
-          <cell r="G20">
-            <v>20</v>
+            <v>250</v>
+          </cell>
+          <cell r="F20">
+            <v>540</v>
           </cell>
           <cell r="H20">
-            <v>2.5000000000000001E-2</v>
+            <v>0</v>
           </cell>
           <cell r="I20">
-            <v>120</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>115  Колбаса Салями Филейбургская зернистая, в/у 0,35 кг срез, БАВАРУШКА ПОКОМ</v>
+            <v>060  Колбаса Докторская стародворская  0,5 кг,ПОКОМ</v>
           </cell>
           <cell r="B21" t="str">
             <v>шт</v>
           </cell>
+          <cell r="D21">
+            <v>80</v>
+          </cell>
           <cell r="E21">
-            <v>6</v>
+            <v>40</v>
           </cell>
           <cell r="F21">
-            <v>6</v>
+            <v>120</v>
           </cell>
           <cell r="H21">
-            <v>0.35</v>
+            <v>0</v>
           </cell>
           <cell r="I21">
-            <v>45</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>116  Колбаса Балыкбурская с копченым балыком, в/у 0,35 кг срез, БАВАРУШКА ПОКОМ</v>
+            <v>062  Колбаса Кракушка пряная с сальцем, 0.3кг в/у п/к, БАВАРУШКА ПОКОМ</v>
           </cell>
           <cell r="B22" t="str">
             <v>шт</v>
           </cell>
+          <cell r="D22">
+            <v>170</v>
+          </cell>
           <cell r="E22">
-            <v>6</v>
+            <v>66</v>
           </cell>
           <cell r="F22">
-            <v>6</v>
+            <v>168</v>
+          </cell>
+          <cell r="G22">
+            <v>57</v>
           </cell>
           <cell r="H22">
-            <v>0.35</v>
+            <v>0.3</v>
           </cell>
           <cell r="I22">
-            <v>45</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>200  Ветчина Дугушка ТМ Стародворье, вектор в/у    ПОКОМ</v>
+            <v>064  Колбаса Молочная Дугушка, вектор 0,4 кг, ТМ Стародворье  ПОКОМ</v>
           </cell>
           <cell r="B23" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>Нояб</v>
+            <v>шт</v>
           </cell>
           <cell r="D23">
-            <v>60.389000000000003</v>
+            <v>198</v>
+          </cell>
+          <cell r="E23">
+            <v>300</v>
           </cell>
           <cell r="F23">
-            <v>54.866999999999997</v>
-          </cell>
-          <cell r="G23">
-            <v>-2.4140000000000001</v>
+            <v>498</v>
           </cell>
           <cell r="H23">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="I23">
-            <v>55</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>201  Ветчина Нежная ТМ Особый рецепт, (2,5кг), ПОКОМ</v>
+            <v>091  Сардельки Баварские, МГС 0.38кг, ТМ Стародворье  ПОКОМ</v>
           </cell>
           <cell r="B24" t="str">
-            <v>кг</v>
+            <v>шт</v>
           </cell>
           <cell r="D24">
-            <v>3148.866</v>
+            <v>150</v>
           </cell>
           <cell r="E24">
-            <v>15.007999999999999</v>
+            <v>102</v>
           </cell>
           <cell r="F24">
-            <v>1845.28</v>
-          </cell>
-          <cell r="G24">
-            <v>1035.9860000000001</v>
+            <v>252</v>
           </cell>
           <cell r="H24">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="I24">
-            <v>50</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>217  Колбаса Докторская Дугушка, ВЕС, НЕ ГОСТ, ТМ Стародворье ПОКОМ</v>
+            <v>092  Сосиски Баварские с сыром,  0.42кг,ПОКОМ</v>
           </cell>
           <cell r="B25" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v>Нояб</v>
+            <v>шт</v>
           </cell>
           <cell r="D25">
-            <v>45.343000000000004</v>
+            <v>584</v>
           </cell>
           <cell r="E25">
-            <v>1.5009999999999999</v>
+            <v>509</v>
           </cell>
           <cell r="F25">
-            <v>30.771999999999998</v>
+            <v>1029</v>
           </cell>
           <cell r="G25">
-            <v>-5.2869999999999999</v>
+            <v>62</v>
           </cell>
           <cell r="H25">
-            <v>1</v>
+            <v>0.42</v>
           </cell>
           <cell r="I25">
-            <v>55</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>218  Колбаса Докторская оригинальная ТМ Особый рецепт БОЛЬШОЙ БАТОН, п/а ВЕС, ТМ Стародворье ПОКОМ</v>
+            <v>096  Сосиски Баварские,  0.42кг,ПОКОМ</v>
           </cell>
           <cell r="B26" t="str">
-            <v>кг</v>
+            <v>шт</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>бонус_Н</v>
+          </cell>
+          <cell r="D26">
+            <v>1138</v>
           </cell>
           <cell r="E26">
-            <v>10.869</v>
+            <v>300</v>
           </cell>
           <cell r="F26">
-            <v>7.2080000000000002</v>
+            <v>1271.2</v>
           </cell>
           <cell r="G26">
-            <v>3.661</v>
+            <v>5</v>
           </cell>
           <cell r="H26">
-            <v>1</v>
+            <v>0.42</v>
           </cell>
           <cell r="I26">
-            <v>60</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>219  Колбаса Докторская Особая ТМ Особый рецепт, ВЕС  ПОКОМ</v>
+            <v>100  Сосиски Баварушки, 0.6кг, БАВАРУШКА ПОКОМ</v>
           </cell>
           <cell r="B27" t="str">
-            <v>кг</v>
+            <v>шт</v>
           </cell>
           <cell r="D27">
-            <v>2744.4029999999998</v>
+            <v>84</v>
           </cell>
           <cell r="F27">
-            <v>1460.703</v>
-          </cell>
-          <cell r="G27">
-            <v>1021.069</v>
+            <v>84</v>
           </cell>
           <cell r="H27">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="I27">
-            <v>60</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>223  Колбаса Докторская стародворская, фиброуз ВАКУУМ ВЕС, ТМ Стародворье ПОКОМ</v>
+            <v>108  Сосиски С сыром,  0.42кг,ядрена копоть ПОКОМ</v>
           </cell>
           <cell r="B28" t="str">
-            <v>кг</v>
+            <v>шт</v>
+          </cell>
+          <cell r="D28">
+            <v>144</v>
           </cell>
           <cell r="E28">
-            <v>32.244</v>
-          </cell>
-          <cell r="G28">
-            <v>16.196000000000002</v>
+            <v>54</v>
+          </cell>
+          <cell r="F28">
+            <v>198</v>
           </cell>
           <cell r="H28">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="I28">
-            <v>55</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>225  Колбаса Дугушка со шпиком, ВЕС, ТМ Стародворье   ПОКОМ</v>
+            <v>114  Сосиски Филейбургские с филе сочного окорока, 0,55 кг, БАВАРУШКА ПОКОМ</v>
           </cell>
           <cell r="B29" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C29" t="str">
-            <v>Нояб</v>
+            <v>шт</v>
           </cell>
           <cell r="D29">
-            <v>325.20699999999999</v>
+            <v>96</v>
           </cell>
           <cell r="E29">
-            <v>2.0169999999999999</v>
+            <v>40</v>
           </cell>
           <cell r="F29">
-            <v>31.437000000000001</v>
-          </cell>
-          <cell r="G29">
-            <v>291.35500000000002</v>
+            <v>136</v>
           </cell>
           <cell r="H29">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="I29">
-            <v>50</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>229  Колбаса Молочная Дугушка, в/у, ВЕС, ТМ Стародворье   ПОКОМ</v>
+            <v>115  Колбаса Салями Филейбургская зернистая, в/у 0,35 кг срез, БАВАРУШКА ПОКОМ</v>
           </cell>
           <cell r="B30" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C30" t="str">
-            <v>Нояб</v>
+            <v>шт</v>
           </cell>
           <cell r="D30">
-            <v>200.91900000000001</v>
+            <v>57</v>
+          </cell>
+          <cell r="E30">
+            <v>24</v>
           </cell>
           <cell r="F30">
-            <v>149.005</v>
+            <v>67</v>
           </cell>
           <cell r="G30">
-            <v>28.079000000000001</v>
+            <v>11</v>
           </cell>
           <cell r="H30">
-            <v>1</v>
+            <v>0.35</v>
           </cell>
           <cell r="I30">
-            <v>55</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>230  Колбаса Молочная Особая ТМ Особый рецепт, п/а, ВЕС. ПОКОМ</v>
+            <v>117  Колбаса Сервелат Филейбургский с ароматными пряностями, в/у 0,35 кг срез, БАВАРУШКА ПОКОМ</v>
           </cell>
           <cell r="B31" t="str">
-            <v>кг</v>
+            <v>шт</v>
           </cell>
           <cell r="D31">
-            <v>2125.0929999999998</v>
+            <v>48</v>
           </cell>
           <cell r="E31">
-            <v>15.654999999999999</v>
+            <v>44</v>
           </cell>
           <cell r="F31">
-            <v>1299.739</v>
-          </cell>
-          <cell r="G31">
-            <v>569.16700000000003</v>
+            <v>92</v>
           </cell>
           <cell r="H31">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="I31">
-            <v>60</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>235  Колбаса Особая ТМ Особый рецепт, ВЕС, ТМ Стародворье ПОКОМ</v>
+            <v>118  Колбаса Сервелат Филейбургский с филе сочного окорока, в/у 0,35 кг срез, БАВАРУШКА ПОКОМ</v>
           </cell>
           <cell r="B32" t="str">
-            <v>кг</v>
+            <v>шт</v>
           </cell>
           <cell r="D32">
-            <v>2309.29</v>
+            <v>60</v>
+          </cell>
+          <cell r="E32">
+            <v>42</v>
           </cell>
           <cell r="F32">
-            <v>1201.8989999999999</v>
-          </cell>
-          <cell r="G32">
-            <v>816.58600000000001</v>
+            <v>102</v>
           </cell>
           <cell r="H32">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="I32">
-            <v>60</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>236  Колбаса Рубленая ЗАПЕЧ. Дугушка ТМ Стародворье, вектор, в/к    ПОКОМ</v>
+            <v>200  Ветчина Дугушка ТМ Стародворье, вектор в/у    ПОКОМ</v>
           </cell>
           <cell r="B33" t="str">
             <v>кг</v>
@@ -8964,468 +8465,504 @@
             <v>Нояб</v>
           </cell>
           <cell r="D33">
-            <v>273.75700000000001</v>
+            <v>1122.665</v>
           </cell>
           <cell r="F33">
-            <v>80.103999999999999</v>
+            <v>533.68499999999995</v>
           </cell>
           <cell r="G33">
-            <v>167.37299999999999</v>
+            <v>436.63499999999999</v>
           </cell>
           <cell r="H33">
             <v>1</v>
           </cell>
           <cell r="I33">
-            <v>60</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>239  Колбаса Салями запеч Дугушка, оболочка вектор, ВЕС, ТМ Стародворье  ПОКОМ</v>
+            <v>201  Ветчина Нежная ТМ Особый рецепт, (2,5кг), ПОКОМ</v>
           </cell>
           <cell r="B34" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C34" t="str">
-            <v>Нояб</v>
-          </cell>
           <cell r="D34">
-            <v>309.12</v>
+            <v>3206.277</v>
+          </cell>
+          <cell r="E34">
+            <v>837.29300000000001</v>
           </cell>
           <cell r="F34">
-            <v>31.779</v>
+            <v>3009.0970000000002</v>
           </cell>
           <cell r="G34">
-            <v>257.12</v>
+            <v>799.44200000000001</v>
           </cell>
           <cell r="H34">
             <v>1</v>
           </cell>
           <cell r="I34">
-            <v>60</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>242  Колбаса Сервелат ЗАПЕЧ.Дугушка ТМ Стародворье, вектор, в/к     ПОКОМ</v>
+            <v>215  Колбаса Докторская ГОСТ Дугушка, ВЕС, ТМ Стародворье ПОКОМ</v>
           </cell>
           <cell r="B35" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C35" t="str">
-            <v>Нояб</v>
-          </cell>
           <cell r="D35">
-            <v>93.786000000000001</v>
+            <v>53.677999999999997</v>
           </cell>
           <cell r="F35">
-            <v>57.887</v>
+            <v>21.134</v>
           </cell>
           <cell r="G35">
-            <v>23.625</v>
+            <v>7.8920000000000003</v>
           </cell>
           <cell r="H35">
             <v>1</v>
           </cell>
           <cell r="I35">
-            <v>60</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>248  Сардельки Сочные ТМ Особый рецепт,   ПОКОМ</v>
+            <v>217  Колбаса Докторская Дугушка, ВЕС, НЕ ГОСТ, ТМ Стародворье ПОКОМ</v>
           </cell>
           <cell r="B36" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C36" t="str">
+            <v>Нояб</v>
+          </cell>
           <cell r="D36">
-            <v>315.70600000000002</v>
+            <v>1656.405</v>
+          </cell>
+          <cell r="E36">
+            <v>7.3460000000000001</v>
           </cell>
           <cell r="F36">
-            <v>202.06899999999999</v>
-          </cell>
-          <cell r="G36">
-            <v>74.742999999999995</v>
+            <v>1.75</v>
           </cell>
           <cell r="H36">
             <v>1</v>
           </cell>
           <cell r="I36">
-            <v>30</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>250  Сардельки стародворские с говядиной в обол. NDX, ВЕС. ПОКОМ</v>
+            <v>219  Колбаса Докторская Особая ТМ Особый рецепт, ВЕС  ПОКОМ</v>
           </cell>
           <cell r="B37" t="str">
             <v>кг</v>
           </cell>
           <cell r="D37">
-            <v>288.24799999999999</v>
+            <v>6632.4549999999999</v>
+          </cell>
+          <cell r="E37">
+            <v>3609.73</v>
           </cell>
           <cell r="F37">
-            <v>224.142</v>
+            <v>4195.0940000000001</v>
           </cell>
           <cell r="G37">
-            <v>32.51</v>
+            <v>5540.5659999999998</v>
           </cell>
           <cell r="H37">
             <v>1</v>
           </cell>
           <cell r="I37">
-            <v>30</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>255  Сосиски Молочные для завтрака ТМ Особый рецепт, п/а МГС, ВЕС, ТМ Стародворье  ПОКОМ</v>
+            <v>225  Колбаса Дугушка со шпиком, ВЕС, ТМ Стародворье   ПОКОМ</v>
           </cell>
           <cell r="B38" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C38" t="str">
+            <v>Нояб</v>
+          </cell>
           <cell r="D38">
-            <v>606.57000000000005</v>
+            <v>27.091000000000001</v>
+          </cell>
+          <cell r="E38">
+            <v>188.82599999999999</v>
           </cell>
           <cell r="F38">
-            <v>207.14699999999999</v>
+            <v>24.555</v>
           </cell>
           <cell r="G38">
-            <v>337.70699999999999</v>
+            <v>169.41800000000001</v>
           </cell>
           <cell r="H38">
             <v>1</v>
           </cell>
           <cell r="I38">
-            <v>40</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>257  Сосиски Молочные оригинальные ТМ Особый рецепт, ВЕС.   ПОКОМ</v>
+            <v>229  Колбаса Молочная Дугушка, в/у, ВЕС, ТМ Стародворье   ПОКОМ</v>
           </cell>
           <cell r="B39" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C39" t="str">
+            <v>Нояб</v>
+          </cell>
           <cell r="D39">
-            <v>228.625</v>
+            <v>568.81299999999999</v>
+          </cell>
+          <cell r="E39">
+            <v>1205.299</v>
           </cell>
           <cell r="F39">
-            <v>79.635000000000005</v>
+            <v>407.21100000000001</v>
           </cell>
           <cell r="G39">
-            <v>124.4</v>
+            <v>1039.2950000000001</v>
           </cell>
           <cell r="H39">
             <v>1</v>
           </cell>
           <cell r="I39">
-            <v>35</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>263  Шпикачки Стародворские, ВЕС.  ПОКОМ</v>
+            <v>230  Колбаса Молочная Особая ТМ Особый рецепт, п/а, ВЕС. ПОКОМ</v>
           </cell>
           <cell r="B40" t="str">
             <v>кг</v>
           </cell>
+          <cell r="D40">
+            <v>3808.6759999999999</v>
+          </cell>
           <cell r="E40">
-            <v>15.483000000000001</v>
+            <v>3584.2710000000002</v>
           </cell>
           <cell r="F40">
-            <v>7.569</v>
+            <v>3280.4349999999999</v>
           </cell>
           <cell r="G40">
-            <v>7.9139999999999997</v>
+            <v>3717.3330000000001</v>
           </cell>
           <cell r="H40">
             <v>1</v>
           </cell>
           <cell r="I40">
-            <v>30</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>265  Колбаса Балыкбургская, ВЕС, ТМ Баварушка  ПОКОМ</v>
+            <v>235  Колбаса Особая ТМ Особый рецепт, ВЕС, ТМ Стародворье ПОКОМ</v>
           </cell>
           <cell r="B41" t="str">
             <v>кг</v>
           </cell>
           <cell r="D41">
-            <v>987.57600000000002</v>
+            <v>2172.9749999999999</v>
           </cell>
           <cell r="F41">
-            <v>491.57400000000001</v>
+            <v>1535.251</v>
           </cell>
           <cell r="G41">
-            <v>406.09500000000003</v>
+            <v>77.965000000000003</v>
           </cell>
           <cell r="H41">
             <v>1</v>
           </cell>
           <cell r="I41">
-            <v>45</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>266  Колбаса Филейбургская с сочным окороком, ВЕС, ТМ Баварушка  ПОКОМ</v>
+            <v>236  Колбаса Рубленая ЗАПЕЧ. Дугушка ТМ Стародворье, вектор, в/к    ПОКОМ</v>
           </cell>
           <cell r="B42" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C42" t="str">
+            <v>Нояб</v>
+          </cell>
           <cell r="D42">
-            <v>536.09</v>
+            <v>593.01499999999999</v>
+          </cell>
+          <cell r="E42">
+            <v>225.13499999999999</v>
           </cell>
           <cell r="F42">
-            <v>394.66199999999998</v>
+            <v>94.277000000000001</v>
           </cell>
           <cell r="G42">
-            <v>61.26</v>
+            <v>163.73500000000001</v>
           </cell>
           <cell r="H42">
             <v>1</v>
           </cell>
           <cell r="I42">
-            <v>45</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>271  Колбаса Сервелат Левантский ТМ Особый Рецепт, ВЕС. ПОКОМ</v>
+            <v>239  Колбаса Салями запеч Дугушка, оболочка вектор, ВЕС, ТМ Стародворье  ПОКОМ</v>
           </cell>
           <cell r="B43" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C43" t="str">
+            <v>Нояб</v>
+          </cell>
+          <cell r="D43">
+            <v>176.84899999999999</v>
+          </cell>
           <cell r="E43">
-            <v>13.009</v>
+            <v>555.005</v>
           </cell>
           <cell r="F43">
-            <v>13.02</v>
+            <v>159.03200000000001</v>
           </cell>
           <cell r="G43">
-            <v>-1.0999999999999999E-2</v>
+            <v>498.85599999999999</v>
           </cell>
           <cell r="H43">
             <v>1</v>
           </cell>
           <cell r="I43">
-            <v>35</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>273  Сосиски Сочинки с сочной грудинкой, МГС 0.4кг,   ПОКОМ</v>
+            <v>240  Колбаса Салями охотничья, ВЕС. ПОКОМ</v>
           </cell>
           <cell r="B44" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C44" t="str">
-            <v>Нояб</v>
+            <v>кг</v>
           </cell>
           <cell r="D44">
-            <v>564</v>
+            <v>22.945</v>
+          </cell>
+          <cell r="E44">
+            <v>14.019</v>
           </cell>
           <cell r="F44">
-            <v>437</v>
+            <v>11.372999999999999</v>
           </cell>
           <cell r="G44">
-            <v>127</v>
+            <v>20.672999999999998</v>
           </cell>
           <cell r="H44">
-            <v>0.4</v>
+            <v>1</v>
           </cell>
           <cell r="I44">
-            <v>45</v>
+            <v>180</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>276  Колбаса Сливушка ТМ Вязанка в оболочке полиамид 0,45 кг  ПОКОМ</v>
+            <v>242  Колбаса Сервелат ЗАПЕЧ.Дугушка ТМ Стародворье, вектор, в/к     ПОКОМ</v>
           </cell>
           <cell r="B45" t="str">
-            <v>шт</v>
+            <v>кг</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>Нояб</v>
+          </cell>
+          <cell r="D45">
+            <v>483.904</v>
           </cell>
           <cell r="E45">
-            <v>10</v>
+            <v>907.47699999999998</v>
           </cell>
           <cell r="F45">
-            <v>10</v>
+            <v>445.58</v>
+          </cell>
+          <cell r="G45">
+            <v>808.97900000000004</v>
           </cell>
           <cell r="H45">
-            <v>0.45</v>
+            <v>1</v>
           </cell>
           <cell r="I45">
-            <v>50</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>301  Сосиски Сочинки по-баварски с сыром,  0.4кг, ТМ Стародворье  ПОКОМ</v>
+            <v>243  Колбаса Сервелат Зернистый, ВЕС.  ПОКОМ</v>
           </cell>
           <cell r="B46" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C46" t="str">
-            <v>Нояб</v>
+            <v>кг</v>
+          </cell>
+          <cell r="D46">
+            <v>137.44999999999999</v>
+          </cell>
+          <cell r="E46">
+            <v>1.153</v>
+          </cell>
+          <cell r="F46">
+            <v>52.173000000000002</v>
+          </cell>
+          <cell r="G46">
+            <v>73.2</v>
           </cell>
           <cell r="H46">
-            <v>0.4</v>
+            <v>1</v>
           </cell>
           <cell r="I46">
-            <v>40</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>302  Сосиски Сочинки по-баварски,  0.4кг, ТМ Стародворье  ПОКОМ</v>
+            <v>244  Колбаса Сервелат Кремлевский, ВЕС. ПОКОМ</v>
           </cell>
           <cell r="B47" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C47" t="str">
-            <v>Нояб</v>
+            <v>кг</v>
           </cell>
           <cell r="D47">
-            <v>612</v>
+            <v>7.024</v>
           </cell>
           <cell r="F47">
-            <v>343</v>
-          </cell>
-          <cell r="G47">
-            <v>252</v>
+            <v>2.1320000000000001</v>
           </cell>
           <cell r="H47">
-            <v>0.4</v>
+            <v>1</v>
           </cell>
           <cell r="I47">
-            <v>45</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>309  Сосиски Сочинки с сыром 0,4 кг ТМ Стародворье  ПОКОМ</v>
+            <v>247  Сардельки Нежные, ВЕС.  ПОКОМ</v>
           </cell>
           <cell r="B48" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C48" t="str">
-            <v>Нояб</v>
+            <v>кг</v>
           </cell>
           <cell r="D48">
-            <v>65</v>
+            <v>143.458</v>
           </cell>
           <cell r="F48">
-            <v>41</v>
-          </cell>
-          <cell r="G48">
-            <v>-32</v>
+            <v>34.613999999999997</v>
           </cell>
           <cell r="H48">
-            <v>0.4</v>
+            <v>1</v>
           </cell>
           <cell r="I48">
-            <v>40</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>312  Ветчина Филейская ТМ Вязанка ТС Столичная ВЕС  ПОКОМ</v>
+            <v>248  Сардельки Сочные ТМ Особый рецепт,   ПОКОМ</v>
           </cell>
           <cell r="B49" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C49" t="str">
-            <v>Нояб</v>
-          </cell>
           <cell r="D49">
-            <v>22.927</v>
+            <v>372.779</v>
+          </cell>
+          <cell r="E49">
+            <v>191.95699999999999</v>
           </cell>
           <cell r="F49">
-            <v>5.6120000000000001</v>
+            <v>397.23200000000003</v>
+          </cell>
+          <cell r="G49">
+            <v>144.89400000000001</v>
           </cell>
           <cell r="H49">
             <v>1</v>
           </cell>
           <cell r="I49">
-            <v>50</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>313 Колбаса вареная Молокуша ТМ Вязанка в оболочке полиамид. ВЕС  ПОКОМ</v>
+            <v>250  Сардельки стародворские с говядиной в обол. NDX, ВЕС. ПОКОМ</v>
           </cell>
           <cell r="B50" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C50" t="str">
-            <v>Нояб</v>
-          </cell>
           <cell r="D50">
-            <v>78.084000000000003</v>
+            <v>471.73500000000001</v>
+          </cell>
+          <cell r="E50">
+            <v>307.17200000000003</v>
           </cell>
           <cell r="F50">
-            <v>66.224000000000004</v>
+            <v>329.59500000000003</v>
           </cell>
           <cell r="G50">
-            <v>-5.6959999999999997</v>
+            <v>382.178</v>
           </cell>
           <cell r="H50">
             <v>1</v>
           </cell>
           <cell r="I50">
-            <v>50</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>314 Колбаса вареная Филейская ТМ Вязанка ТС Классическая в оболочке полиамид.  ПОКОМ</v>
+            <v>253  Сосиски Ганноверские   ПОКОМ</v>
           </cell>
           <cell r="B51" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C51" t="str">
-            <v>Нояб</v>
-          </cell>
           <cell r="D51">
-            <v>66.331999999999994</v>
+            <v>47.530999999999999</v>
           </cell>
           <cell r="E51">
-            <v>2.1999999999999999E-2</v>
+            <v>1.7999999999999999E-2</v>
           </cell>
           <cell r="F51">
-            <v>96.564999999999998</v>
+            <v>12.167</v>
           </cell>
           <cell r="G51">
-            <v>32.489999999999995</v>
+            <v>31.327000000000002</v>
           </cell>
           <cell r="H51">
             <v>1</v>
           </cell>
           <cell r="I51">
-            <v>55</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>318 Сосиски Датские ТМ Зареченские колбасы ТС Зареченские п полиамид в модифициров  ПОКОМ</v>
+            <v>254  Сосиски Датские, ВЕС, ТМ КОЛБАСНЫЙ СТАНДАРТ ПОКОМ</v>
           </cell>
           <cell r="B52" t="str">
             <v>кг</v>
           </cell>
           <cell r="D52">
-            <v>483.49299999999999</v>
+            <v>9.4410000000000007</v>
           </cell>
           <cell r="E52">
-            <v>7.7</v>
+            <v>62.234999999999999</v>
           </cell>
           <cell r="F52">
-            <v>353.73200000000003</v>
+            <v>3.9860000000000002</v>
           </cell>
           <cell r="G52">
-            <v>114.22499999999999</v>
+            <v>67.69</v>
           </cell>
           <cell r="H52">
             <v>1</v>
@@ -9436,88 +8973,100 @@
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>320  Сосиски Сочинки с сочным окороком 0,4 кг ТМ Стародворье  ПОКОМ</v>
+            <v>255  Сосиски Молочные для завтрака ТМ Особый рецепт, п/а МГС, ВЕС, ТМ Стародворье  ПОКОМ</v>
           </cell>
           <cell r="B53" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C53" t="str">
-            <v>Нояб</v>
+            <v>кг</v>
           </cell>
           <cell r="D53">
-            <v>654</v>
+            <v>1406.2339999999999</v>
+          </cell>
+          <cell r="E53">
+            <v>1302.8150000000001</v>
           </cell>
           <cell r="F53">
-            <v>420</v>
+            <v>981.54399999999998</v>
           </cell>
           <cell r="G53">
-            <v>234</v>
+            <v>1470.501</v>
           </cell>
           <cell r="H53">
-            <v>0.4</v>
+            <v>1</v>
           </cell>
           <cell r="I53">
-            <v>45</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>323 Колбаса варенокопченая Балыкбургская рубленая ТМ Баварушка срез 0,35 кг   ПОКОМ</v>
+            <v>257  Сосиски Молочные оригинальные ТМ Особый рецепт, ВЕС.   ПОКОМ</v>
           </cell>
           <cell r="B54" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="E54">
-            <v>6</v>
+            <v>кг</v>
+          </cell>
+          <cell r="D54">
+            <v>75.936000000000007</v>
           </cell>
           <cell r="F54">
-            <v>6</v>
+            <v>7.86</v>
+          </cell>
+          <cell r="G54">
+            <v>68.031000000000006</v>
           </cell>
           <cell r="H54">
-            <v>0.35</v>
+            <v>1</v>
           </cell>
           <cell r="I54">
-            <v>45</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>343 Колбаса Докторская оригинальная ТМ Особый рецепт в оболочке полиамид 0,4 кг.  ПОКОМ</v>
+            <v>266  Колбаса Филейбургская с сочным окороком, ВЕС, ТМ Баварушка  ПОКОМ</v>
           </cell>
           <cell r="B55" t="str">
-            <v>шт</v>
+            <v>кг</v>
+          </cell>
+          <cell r="D55">
+            <v>64.254999999999995</v>
           </cell>
           <cell r="E55">
-            <v>10</v>
+            <v>4.5999999999999999E-2</v>
           </cell>
           <cell r="F55">
-            <v>6</v>
+            <v>60.029000000000003</v>
           </cell>
           <cell r="G55">
-            <v>4</v>
+            <v>4.2720000000000002</v>
           </cell>
           <cell r="H55">
-            <v>0.4</v>
+            <v>1</v>
           </cell>
           <cell r="I55">
-            <v>60</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>346 Колбаса Сервелат Филейбургский с копченой грудинкой ТМ Баварушка в оболов/у 0,35 кг срез  ПОКОМ</v>
+            <v>267  Колбаса Салями Филейбургская зернистая, оболочка фиброуз, ВЕС, ТМ Баварушка  ПОКОМ</v>
           </cell>
           <cell r="B56" t="str">
-            <v>шт</v>
+            <v>кг</v>
+          </cell>
+          <cell r="D56">
+            <v>50.246000000000002</v>
           </cell>
           <cell r="E56">
-            <v>6</v>
+            <v>103.666</v>
           </cell>
           <cell r="F56">
-            <v>6</v>
+            <v>28.802</v>
+          </cell>
+          <cell r="G56">
+            <v>104.345</v>
           </cell>
           <cell r="H56">
-            <v>0.35</v>
+            <v>1</v>
           </cell>
           <cell r="I56">
             <v>45</v>
@@ -9525,27 +9074,33 @@
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>347 Паштет печеночный со сливочным маслом ТМ Стародворье ламистер 0,1 кг. Консервы   ПОКОМ</v>
+            <v>272  Колбаса Сервелат Филедворский, фиброуз, в/у 0,35 кг срез,  ПОКОМ</v>
           </cell>
           <cell r="B57" t="str">
             <v>шт</v>
           </cell>
+          <cell r="D57">
+            <v>41</v>
+          </cell>
           <cell r="E57">
-            <v>20</v>
+            <v>177</v>
           </cell>
           <cell r="F57">
-            <v>20</v>
+            <v>23</v>
+          </cell>
+          <cell r="G57">
+            <v>174</v>
           </cell>
           <cell r="H57">
-            <v>0.1</v>
+            <v>0.35</v>
           </cell>
           <cell r="I57">
-            <v>730</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>352  Сардельки Сочинки с сыром 0,4 кг ТМ Стародворье   ПОКОМ</v>
+            <v>273  Сосиски Сочинки с сочной грудинкой, МГС 0.4кг,   ПОКОМ</v>
           </cell>
           <cell r="B58" t="str">
             <v>шт</v>
@@ -9554,119 +9109,131 @@
             <v>Нояб</v>
           </cell>
           <cell r="D58">
-            <v>64</v>
+            <v>441</v>
+          </cell>
+          <cell r="E58">
+            <v>768</v>
           </cell>
           <cell r="F58">
-            <v>37</v>
+            <v>398</v>
           </cell>
           <cell r="G58">
-            <v>-7</v>
+            <v>705</v>
           </cell>
           <cell r="H58">
             <v>0.4</v>
           </cell>
           <cell r="I58">
-            <v>40</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>355 Сос Молочные для завтрака ОР полиамид мгс 0,4 кг НД СК  ПОКОМ</v>
+            <v>276  Колбаса Сливушка ТМ Вязанка в оболочке полиамид 0,45 кг  ПОКОМ</v>
           </cell>
           <cell r="B59" t="str">
             <v>шт</v>
           </cell>
+          <cell r="D59">
+            <v>102</v>
+          </cell>
           <cell r="E59">
-            <v>6</v>
+            <v>30</v>
           </cell>
           <cell r="F59">
-            <v>6</v>
+            <v>39</v>
+          </cell>
+          <cell r="G59">
+            <v>80</v>
           </cell>
           <cell r="H59">
-            <v>0.4</v>
+            <v>0.45</v>
           </cell>
           <cell r="I59">
-            <v>40</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>360 Колбаса варено-копченая  Сервелат Левантский ТМ Особый Рецепт  0,35 кг  ПОКОМ</v>
+            <v>283  Сосиски Сочинки, ВЕС, ТМ Стародворье ПОКОМ</v>
           </cell>
           <cell r="B60" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="E60">
-            <v>8</v>
+            <v>кг</v>
+          </cell>
+          <cell r="D60">
+            <v>619.17499999999995</v>
           </cell>
           <cell r="F60">
-            <v>6</v>
+            <v>252.185</v>
           </cell>
           <cell r="G60">
-            <v>2</v>
+            <v>323.34800000000001</v>
           </cell>
           <cell r="H60">
-            <v>0.35</v>
+            <v>1</v>
           </cell>
           <cell r="I60">
-            <v>35</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>369 Колбаса Сливушка ТМ Вязанка в оболочке полиамид вес.  ПОКОМ</v>
+            <v>296  Колбаса Мясорубская с рубленой грудинкой 0,35кг срез ТМ Стародворье  ПОКОМ</v>
           </cell>
           <cell r="B61" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C61" t="str">
-            <v>Нояб</v>
+            <v>шт</v>
           </cell>
           <cell r="D61">
-            <v>98.506</v>
+            <v>65</v>
+          </cell>
+          <cell r="E61">
+            <v>248</v>
           </cell>
           <cell r="F61">
-            <v>87.174000000000007</v>
+            <v>55</v>
           </cell>
           <cell r="G61">
-            <v>7.298</v>
+            <v>241</v>
           </cell>
           <cell r="H61">
-            <v>1</v>
+            <v>0.35</v>
           </cell>
           <cell r="I61">
-            <v>50</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>370 Ветчина Сливушка с индейкой ТМ Вязанка в оболочке полиамид.</v>
+            <v>301  Сосиски Сочинки по-баварски с сыром,  0.4кг, ТМ Стародворье  ПОКОМ</v>
           </cell>
           <cell r="B62" t="str">
-            <v>кг</v>
+            <v>шт</v>
           </cell>
           <cell r="C62" t="str">
             <v>Нояб</v>
           </cell>
           <cell r="D62">
-            <v>21.785</v>
+            <v>469</v>
+          </cell>
+          <cell r="E62">
+            <v>768</v>
           </cell>
           <cell r="F62">
-            <v>23.026</v>
+            <v>435</v>
           </cell>
           <cell r="G62">
-            <v>-17.666</v>
+            <v>714</v>
           </cell>
           <cell r="H62">
-            <v>1</v>
+            <v>0.4</v>
           </cell>
           <cell r="I62">
-            <v>50</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>371  Сосиски Сочинки Молочные 0,4 кг ТМ Стародворье  ПОКОМ</v>
+            <v>302  Сосиски Сочинки по-баварски,  0.4кг, ТМ Стародворье  ПОКОМ</v>
           </cell>
           <cell r="B63" t="str">
             <v>шт</v>
@@ -9675,24 +9242,27 @@
             <v>Нояб</v>
           </cell>
           <cell r="D63">
-            <v>450</v>
+            <v>989</v>
+          </cell>
+          <cell r="E63">
+            <v>1890</v>
           </cell>
           <cell r="F63">
-            <v>346</v>
+            <v>1660</v>
           </cell>
           <cell r="G63">
-            <v>104</v>
+            <v>1029</v>
           </cell>
           <cell r="H63">
             <v>0.4</v>
           </cell>
           <cell r="I63">
-            <v>40</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>372  Сосиски Сочинки Сливочные 0,4 кг ТМ Стародворье  ПОКОМ</v>
+            <v>309  Сосиски Сочинки с сыром 0,4 кг ТМ Стародворье  ПОКОМ</v>
           </cell>
           <cell r="B64" t="str">
             <v>шт</v>
@@ -9701,13 +9271,16 @@
             <v>Нояб</v>
           </cell>
           <cell r="D64">
-            <v>523</v>
+            <v>105</v>
+          </cell>
+          <cell r="E64">
+            <v>84</v>
           </cell>
           <cell r="F64">
-            <v>352</v>
+            <v>101</v>
           </cell>
           <cell r="G64">
-            <v>79</v>
+            <v>73</v>
           </cell>
           <cell r="H64">
             <v>0.4</v>
@@ -9718,76 +9291,106 @@
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>376  Сардельки Сочинки с сочным окороком ТМ Стародворье полиамид мгс ф/в 0,4 кг СК3</v>
+            <v>312  Ветчина Филейская ТМ Вязанка ТС Столичная ВЕС  ПОКОМ</v>
           </cell>
           <cell r="B65" t="str">
-            <v>шт</v>
+            <v>кг</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>Нояб</v>
+          </cell>
+          <cell r="D65">
+            <v>115.8</v>
+          </cell>
+          <cell r="E65">
+            <v>10.923999999999999</v>
           </cell>
           <cell r="F65">
+            <v>62.277000000000001</v>
+          </cell>
+          <cell r="G65">
+            <v>87.563000000000002</v>
+          </cell>
+          <cell r="H65">
             <v>1</v>
           </cell>
-          <cell r="G65">
-            <v>-1</v>
-          </cell>
-          <cell r="H65">
-            <v>0</v>
-          </cell>
           <cell r="I65">
-            <v>40</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>381  Сардельки Сочинки 0,4кг ТМ Стародворье  ПОКОМ</v>
+            <v>313 Колбаса вареная Молокуша ТМ Вязанка в оболочке полиамид. ВЕС  ПОКОМ</v>
           </cell>
           <cell r="B66" t="str">
-            <v>шт</v>
+            <v>кг</v>
           </cell>
           <cell r="C66" t="str">
             <v>Нояб</v>
           </cell>
           <cell r="D66">
-            <v>138</v>
+            <v>305.83999999999997</v>
+          </cell>
+          <cell r="E66">
+            <v>347.29</v>
           </cell>
           <cell r="F66">
-            <v>130</v>
+            <v>251.68</v>
           </cell>
           <cell r="G66">
-            <v>-14</v>
+            <v>316.07499999999999</v>
           </cell>
           <cell r="H66">
-            <v>0.4</v>
+            <v>1</v>
           </cell>
           <cell r="I66">
-            <v>40</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>383 Колбаса Сочинка по-европейски с сочной грудиной ТМ Стародворье в оболочке фиброуз в ва  Поком</v>
+            <v>314 Колбаса вареная Филейская ТМ Вязанка ТС Классическая в оболочке полиамид.  ПОКОМ</v>
           </cell>
           <cell r="B67" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C67" t="str">
+            <v>Нояб</v>
+          </cell>
           <cell r="D67">
-            <v>5.0620000000000003</v>
+            <v>697.46799999999996</v>
+          </cell>
+          <cell r="F67">
+            <v>175.02799999999999</v>
+          </cell>
+          <cell r="G67">
+            <v>613.428</v>
           </cell>
           <cell r="H67">
             <v>1</v>
           </cell>
           <cell r="I67">
-            <v>40</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>384  Колбаса Сочинка по-фински с сочным окороком ТМ Стародворье в оболочке фиброуз в ва  Поком</v>
+            <v>318 Сосиски Датские ТМ Зареченские колбасы ТС Зареченские п полиамид в модифициров  ПОКОМ</v>
           </cell>
           <cell r="B68" t="str">
             <v>кг</v>
           </cell>
           <cell r="D68">
-            <v>22.087</v>
+            <v>736.79300000000001</v>
+          </cell>
+          <cell r="E68">
+            <v>0.21199999999999999</v>
+          </cell>
+          <cell r="F68">
+            <v>145.12700000000001</v>
+          </cell>
+          <cell r="G68">
+            <v>577.99300000000005</v>
           </cell>
           <cell r="H68">
             <v>1</v>
@@ -9798,403 +9401,454 @@
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>389 Колбаса вареная Мусульманская Халяль ТМ Вязанка Халяль оболочка вектор 0,4 кг АК.  Поком</v>
+            <v>320  Сосиски Сочинки с сочным окороком 0,4 кг ТМ Стародворье  ПОКОМ</v>
           </cell>
           <cell r="B69" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C69" t="str">
+            <v>Нояб</v>
+          </cell>
           <cell r="D69">
-            <v>115</v>
+            <v>119</v>
           </cell>
           <cell r="E69">
-            <v>24</v>
+            <v>516</v>
           </cell>
           <cell r="F69">
-            <v>44</v>
+            <v>68</v>
           </cell>
           <cell r="G69">
-            <v>67</v>
+            <v>497</v>
           </cell>
           <cell r="H69">
             <v>0.4</v>
           </cell>
           <cell r="I69">
-            <v>90</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>390 Сосиски Восточные Халяль ТМ Вязанка в оболочке полиамид в вакуумной упаковке 0,33 кг  Поком</v>
+            <v>325 Колбаса Сервелат Мясорубский ТМ Стародворье с мелкорубленным окороком 0,35 кг  ПОКОМ</v>
           </cell>
           <cell r="B70" t="str">
             <v>шт</v>
           </cell>
-          <cell r="D70">
-            <v>189</v>
-          </cell>
           <cell r="E70">
-            <v>8</v>
+            <v>42</v>
           </cell>
           <cell r="F70">
-            <v>58</v>
+            <v>4</v>
           </cell>
           <cell r="G70">
-            <v>106</v>
+            <v>38</v>
           </cell>
           <cell r="H70">
-            <v>0.33</v>
+            <v>0.35</v>
           </cell>
           <cell r="I70">
-            <v>60</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>405 Ветчины пастеризованная «Нежная с филе» Фикс.вес 0,4 п/а ТМ «Особый рецепт»  Поком</v>
+            <v>340 Ветчина Запекуша с сочным окороком ТМ Стародворские колбасы ТС Вязанка в обо 0,42 кг. ПОКОМ</v>
           </cell>
           <cell r="B71" t="str">
             <v>шт</v>
           </cell>
-          <cell r="E71">
-            <v>20</v>
+          <cell r="D71">
+            <v>30</v>
           </cell>
           <cell r="F71">
-            <v>20</v>
+            <v>30</v>
           </cell>
           <cell r="H71">
-            <v>0.4</v>
+            <v>0</v>
           </cell>
           <cell r="I71">
-            <v>90</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>406 Ветчины Сливушка с индейкой Вязанка Фикс.вес 0,4 П/а Вязанка  Поком</v>
+            <v>343 Колбаса Докторская оригинальная ТМ Особый рецепт в оболочке полиамид 0,4 кг.  ПОКОМ</v>
           </cell>
           <cell r="B72" t="str">
             <v>шт</v>
           </cell>
+          <cell r="D72">
+            <v>260</v>
+          </cell>
           <cell r="E72">
-            <v>12</v>
+            <v>250</v>
           </cell>
           <cell r="F72">
-            <v>7</v>
-          </cell>
-          <cell r="G72">
-            <v>5</v>
+            <v>510</v>
           </cell>
           <cell r="H72">
-            <v>0.4</v>
+            <v>0</v>
           </cell>
           <cell r="I72">
-            <v>50</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>408 Вареные колбасы Сливушка Вязанка Фикс.вес 0,375 П/а Вязанка  Поком</v>
+            <v>344 Колбаса Салями Финская ТМ Стародворски колбасы ТС Вязанка в оболочке фиброуз в вак 0,35 кг ПОКОМ</v>
           </cell>
           <cell r="B73" t="str">
             <v>шт</v>
           </cell>
-          <cell r="E73">
-            <v>10</v>
+          <cell r="D73">
+            <v>40</v>
           </cell>
           <cell r="F73">
-            <v>7</v>
-          </cell>
-          <cell r="G73">
-            <v>3</v>
+            <v>40</v>
           </cell>
           <cell r="H73">
-            <v>0.375</v>
+            <v>0</v>
           </cell>
           <cell r="I73">
-            <v>50</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>409 Вареные колбасы Молокуша Вязанка Фикс.вес 0,4 п/а Вязанка  Поком</v>
+            <v>346 Колбаса Сервелат Филейбургский с копченой грудинкой ТМ Баварушка в оболов/у 0,35 кг срез  ПОКОМ</v>
           </cell>
           <cell r="B74" t="str">
             <v>шт</v>
           </cell>
+          <cell r="D74">
+            <v>42</v>
+          </cell>
           <cell r="E74">
-            <v>10</v>
+            <v>43</v>
           </cell>
           <cell r="F74">
-            <v>10</v>
+            <v>85</v>
           </cell>
           <cell r="H74">
-            <v>0.4</v>
+            <v>0</v>
           </cell>
           <cell r="I74">
-            <v>50</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>410 В/к колбасы Сервелат Запекуша с говядиной Вязанка Весовые П/а Вязанка  Поком</v>
+            <v>347 Паштет печеночный со сливочным маслом ТМ Стародворье ламистер 0,1 кг. Консервы   ПОКОМ</v>
           </cell>
           <cell r="B75" t="str">
-            <v>кг</v>
+            <v>шт</v>
+          </cell>
+          <cell r="D75">
+            <v>60</v>
           </cell>
           <cell r="E75">
-            <v>14.281000000000001</v>
+            <v>300</v>
           </cell>
           <cell r="F75">
-            <v>14.281000000000001</v>
+            <v>360</v>
           </cell>
           <cell r="H75">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="I75">
-            <v>45</v>
+            <v>730</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>412 Вареные колбасы «Молочная с нежным филе» Фикс.вес 0,4 кг п/а ТМ «Особый рецепт»  Поком</v>
+            <v>350 Сосиски Молокуши миникушай ТМ Вязанка в оболочке амицел в модифиц газовой среде 0,45 кг  Поком</v>
           </cell>
           <cell r="B76" t="str">
             <v>шт</v>
           </cell>
+          <cell r="D76">
+            <v>120</v>
+          </cell>
           <cell r="E76">
-            <v>20</v>
+            <v>96</v>
           </cell>
           <cell r="F76">
-            <v>20</v>
+            <v>216</v>
           </cell>
           <cell r="H76">
-            <v>0.4</v>
+            <v>0</v>
           </cell>
           <cell r="I76">
-            <v>90</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>413 Вареные колбасы пастеризованн «Стародворская без шпика» Фикс.вес 0,4 п/а ТМ «Стародворье»  Поком</v>
+            <v>351 Сосиски Филейбургские с грудкой ТМ Баварушка в оболо амицел в моди газовой среде 0,33 кг  Поком</v>
           </cell>
           <cell r="B77" t="str">
             <v>шт</v>
           </cell>
-          <cell r="E77">
-            <v>10</v>
+          <cell r="D77">
+            <v>42</v>
           </cell>
           <cell r="F77">
-            <v>10</v>
+            <v>42</v>
           </cell>
           <cell r="H77">
-            <v>0.4</v>
+            <v>0</v>
           </cell>
           <cell r="I77">
-            <v>90</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>414 Вареные колбасы Молочная По-стародворски Фирменная Фикс.вес 0,5 П/а Стародворье  Поком</v>
+            <v>352  Сардельки Сочинки с сыром 0,4 кг ТМ Стародворье   ПОКОМ</v>
           </cell>
           <cell r="B78" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C78" t="str">
+            <v>Нояб</v>
+          </cell>
+          <cell r="D78">
+            <v>416</v>
+          </cell>
           <cell r="E78">
-            <v>6</v>
+            <v>156</v>
           </cell>
           <cell r="F78">
-            <v>6</v>
+            <v>434</v>
+          </cell>
+          <cell r="G78">
+            <v>74</v>
           </cell>
           <cell r="H78">
-            <v>0.5</v>
+            <v>0.4</v>
           </cell>
           <cell r="I78">
-            <v>55</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>415 Вареные колбасы Докторская ГОСТ Золоченная в печи Весовые ц/о в/у Стародворье  Поком</v>
+            <v>355 Сос Молочные для завтрака ОР полиамид мгс 0,4 кг НД СК  ПОКОМ</v>
           </cell>
           <cell r="B79" t="str">
-            <v>кг</v>
+            <v>шт</v>
+          </cell>
+          <cell r="D79">
+            <v>354</v>
           </cell>
           <cell r="E79">
-            <v>10.753</v>
+            <v>204</v>
           </cell>
           <cell r="F79">
-            <v>8.0660000000000007</v>
-          </cell>
-          <cell r="G79">
-            <v>2.6869999999999998</v>
+            <v>558</v>
           </cell>
           <cell r="H79">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="I79">
-            <v>35</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>416 Вареные колбасы Докторская стародворская Золоченная в печи Весовые ц/о в/у Стародворье  Поком</v>
+            <v>358 Колбаса Сервелат Мясорубский ТМ Стародворье с мелкорубленным окороком в вак упак  ПОКОМ</v>
           </cell>
           <cell r="B80" t="str">
             <v>кг</v>
           </cell>
-          <cell r="E80">
-            <v>16.047999999999998</v>
+          <cell r="D80">
+            <v>22.869</v>
           </cell>
           <cell r="F80">
-            <v>16.047999999999998</v>
+            <v>8.5579999999999998</v>
+          </cell>
+          <cell r="G80">
+            <v>10.692</v>
           </cell>
           <cell r="H80">
             <v>1</v>
           </cell>
           <cell r="I80">
-            <v>35</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>417 П/к колбасы «Сочинка рубленая с сочным окороком» Весовой фиброуз ТМ «Стародворье»  Поком</v>
+            <v>360 Колбаса варено-копченая  Сервелат Левантский ТМ Особый Рецепт  0,35 кг  ПОКОМ</v>
           </cell>
           <cell r="B81" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="E81">
-            <v>9.7439999999999998</v>
-          </cell>
-          <cell r="F81">
-            <v>7.3449999999999998</v>
-          </cell>
-          <cell r="G81">
-            <v>2.399</v>
+            <v>шт</v>
+          </cell>
+          <cell r="D81">
+            <v>6</v>
           </cell>
           <cell r="H81">
-            <v>1</v>
+            <v>0.35</v>
           </cell>
           <cell r="I81">
-            <v>40</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82" t="str">
-            <v>418 С/к колбасы Мини-салями во вкусом бекона Ядрена копоть Фикс.вес 0,05 б/о Ядрена копоть  Поком</v>
+            <v>361 Колбаса Салями Филейбургская зернистая ТМ Баварушка в оболочке  в вак 0.28кг ПОКОМ</v>
           </cell>
           <cell r="B82" t="str">
             <v>шт</v>
           </cell>
+          <cell r="D82">
+            <v>23</v>
+          </cell>
           <cell r="E82">
-            <v>12</v>
+            <v>67</v>
           </cell>
           <cell r="F82">
-            <v>12</v>
+            <v>14</v>
+          </cell>
+          <cell r="G82">
+            <v>64</v>
           </cell>
           <cell r="H82">
-            <v>0.05</v>
+            <v>0.28000000000000003</v>
           </cell>
           <cell r="I82">
-            <v>120</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>419 Паштеты «Любительский ГОСТ» Фикс.вес 0,1 ТМ «Стародворье»  Поком</v>
+            <v>363 Сардельки Филейские Вязанка ТМ Вязанка в обол NDX  ПОКОМ</v>
           </cell>
           <cell r="B83" t="str">
-            <v>шт</v>
+            <v>кг</v>
+          </cell>
+          <cell r="D83">
+            <v>115.961</v>
           </cell>
           <cell r="E83">
-            <v>20</v>
+            <v>87.616</v>
           </cell>
           <cell r="F83">
-            <v>20</v>
+            <v>67.5</v>
+          </cell>
+          <cell r="G83">
+            <v>103.774</v>
           </cell>
           <cell r="H83">
-            <v>0.1</v>
+            <v>1</v>
           </cell>
           <cell r="I83">
-            <v>730</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>420 Паштеты «Печеночный с морковью ГОСТ» Фикс.вес 0,1 ТМ «Стародворье»  Поком</v>
+            <v>364 Колбаса Сервелат Филейбургский с копченой грудинкой ТМ Баварушка  в/у 0,28 кг  ПОКОМ</v>
           </cell>
           <cell r="B84" t="str">
             <v>шт</v>
           </cell>
+          <cell r="D84">
+            <v>69</v>
+          </cell>
           <cell r="E84">
-            <v>20</v>
+            <v>90</v>
           </cell>
           <cell r="F84">
-            <v>20</v>
+            <v>50</v>
+          </cell>
+          <cell r="G84">
+            <v>92</v>
           </cell>
           <cell r="H84">
-            <v>0.1</v>
+            <v>0.28000000000000003</v>
           </cell>
           <cell r="I84">
-            <v>730</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>421 Сардельки Сливушки #минидельки ТМ Вязанка айпил мгс ф/в 0,33 кг  Поком</v>
+            <v>369 Колбаса Сливушка ТМ Вязанка в оболочке полиамид вес.  ПОКОМ</v>
           </cell>
           <cell r="B85" t="str">
-            <v>шт</v>
+            <v>кг</v>
+          </cell>
+          <cell r="C85" t="str">
+            <v>Нояб</v>
+          </cell>
+          <cell r="D85">
+            <v>12.81</v>
           </cell>
           <cell r="E85">
-            <v>6</v>
+            <v>97.212999999999994</v>
           </cell>
           <cell r="F85">
-            <v>6</v>
+            <v>10.84</v>
+          </cell>
+          <cell r="G85">
+            <v>86.373000000000005</v>
           </cell>
           <cell r="H85">
-            <v>0.33</v>
+            <v>1</v>
           </cell>
           <cell r="I85">
-            <v>40</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86" t="str">
-            <v>422 Сардельки «Сливушки с сыром #минидельки» ф/в 0,33 айпил ТМ «Вязанка»  Поком</v>
+            <v>370 Ветчина Сливушка с индейкой ТМ Вязанка в оболочке полиамид.</v>
           </cell>
           <cell r="B86" t="str">
-            <v>шт</v>
+            <v>кг</v>
+          </cell>
+          <cell r="C86" t="str">
+            <v>Нояб</v>
           </cell>
           <cell r="E86">
-            <v>6</v>
-          </cell>
-          <cell r="F86">
-            <v>6</v>
+            <v>107.994</v>
+          </cell>
+          <cell r="G86">
+            <v>107.994</v>
           </cell>
           <cell r="H86">
-            <v>0.33</v>
+            <v>1</v>
           </cell>
           <cell r="I86">
-            <v>40</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>423 Сосиски «Сливушки с сыром» ф/в 0,3 п/а ТМ «Вязанка»  Поком</v>
+            <v>371  Сосиски Сочинки Молочные 0,4 кг ТМ Стародворье  ПОКОМ</v>
           </cell>
           <cell r="B87" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C87" t="str">
+            <v>Нояб</v>
+          </cell>
+          <cell r="D87">
+            <v>142</v>
+          </cell>
           <cell r="E87">
-            <v>6</v>
+            <v>520</v>
           </cell>
           <cell r="F87">
-            <v>6</v>
+            <v>109</v>
+          </cell>
+          <cell r="G87">
+            <v>482</v>
           </cell>
           <cell r="H87">
-            <v>0.3</v>
+            <v>0.4</v>
           </cell>
           <cell r="I87">
             <v>40</v>
@@ -10202,153 +9856,499 @@
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>424 Сосиски Сливочные Вязанка Сливушки Весовые П/а мгс Вязанка  Поком</v>
+            <v>372  Сосиски Сочинки Сливочные 0,4 кг ТМ Стародворье  ПОКОМ</v>
           </cell>
           <cell r="B88" t="str">
-            <v>кг</v>
+            <v>шт</v>
+          </cell>
+          <cell r="C88" t="str">
+            <v>Нояб</v>
+          </cell>
+          <cell r="D88">
+            <v>53</v>
           </cell>
           <cell r="E88">
-            <v>8.1479999999999997</v>
+            <v>391</v>
           </cell>
           <cell r="F88">
-            <v>5.5119999999999996</v>
+            <v>25</v>
           </cell>
           <cell r="G88">
-            <v>2.6360000000000001</v>
+            <v>365</v>
           </cell>
           <cell r="H88">
-            <v>1</v>
+            <v>0.4</v>
           </cell>
           <cell r="I88">
-            <v>45</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>425 Сосиски «Сочные без свинины» Весовые ТМ «Особый рецепт» 1,3 кг  Поком</v>
+            <v>373 Ветчины «Филейская» Фикс.вес 0,45 Вектор ТМ «Вязанка»  Поком</v>
           </cell>
           <cell r="B89" t="str">
-            <v>кг</v>
+            <v>шт</v>
+          </cell>
+          <cell r="D89">
+            <v>114</v>
           </cell>
           <cell r="E89">
-            <v>8.2530000000000001</v>
+            <v>73</v>
           </cell>
           <cell r="F89">
-            <v>8.2530000000000001</v>
+            <v>157</v>
+          </cell>
+          <cell r="G89">
+            <v>30</v>
           </cell>
           <cell r="H89">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="I89">
-            <v>40</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>426 С/к колбасы Чипсы сыровяленые из натурального филе Ядрена копоть Фикс.вес 0,03 Поком</v>
+            <v>374  Сосиски Сочинки с сыром ф/в 0,3 кг п/а ТМ "Стародворье"  Поком</v>
           </cell>
           <cell r="B90" t="str">
             <v>шт</v>
           </cell>
-          <cell r="E90">
-            <v>10</v>
+          <cell r="D90">
+            <v>84</v>
           </cell>
           <cell r="F90">
-            <v>10</v>
+            <v>84</v>
           </cell>
           <cell r="H90">
-            <v>0.03</v>
+            <v>0</v>
           </cell>
           <cell r="I90">
-            <v>120</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v>БОНУС_096  Сосиски Баварские,  0.42кг,ПОКОМ</v>
+            <v>375  Сосиски Сочинки по-баварски Бавария Фикс.вес 0,84 П/а мгс Стародворье</v>
           </cell>
           <cell r="B91" t="str">
             <v>шт</v>
           </cell>
+          <cell r="D91">
+            <v>160</v>
+          </cell>
           <cell r="E91">
-            <v>19</v>
+            <v>88</v>
           </cell>
           <cell r="F91">
-            <v>103</v>
-          </cell>
-          <cell r="G91">
-            <v>-84</v>
+            <v>248</v>
           </cell>
           <cell r="H91">
             <v>0</v>
           </cell>
           <cell r="I91">
-            <v>0</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92" t="str">
-            <v>БОНУС_225  Колбаса Дугушка со шпиком, ВЕС, ТМ Стародворье   ПОКОМ</v>
+            <v>376  Сардельки Сочинки с сочным окороком ТМ Стародворье полиамид мгс ф/в 0,4 кг СК3</v>
           </cell>
           <cell r="B92" t="str">
-            <v>кг</v>
+            <v>шт</v>
           </cell>
           <cell r="D92">
-            <v>3.5179999999999998</v>
+            <v>120</v>
+          </cell>
+          <cell r="E92">
+            <v>101</v>
+          </cell>
+          <cell r="F92">
+            <v>221</v>
           </cell>
           <cell r="H92">
             <v>0</v>
           </cell>
           <cell r="I92">
-            <v>0</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93" t="str">
-            <v>БОНУС_229  Колбаса Молочная Дугушка, в/у, ВЕС, ТМ Стародворье   ПОКОМ</v>
+            <v>377  Сосиски Сочинки по-баварски с сыром ТМ Стародворье полиамид мгс ф/в 0,84 кг СК3</v>
           </cell>
           <cell r="B93" t="str">
-            <v>кг</v>
+            <v>шт</v>
           </cell>
           <cell r="D93">
-            <v>-14.135999999999999</v>
+            <v>144</v>
           </cell>
           <cell r="E93">
-            <v>33.850999999999999</v>
+            <v>52</v>
           </cell>
           <cell r="F93">
-            <v>38.734999999999999</v>
-          </cell>
-          <cell r="G93">
-            <v>-24.295999999999999</v>
+            <v>196</v>
           </cell>
           <cell r="H93">
             <v>0</v>
           </cell>
           <cell r="I93">
-            <v>0</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94" t="str">
+            <v>381  Сардельки Сочинки 0,4кг ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B94" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C94" t="str">
+            <v>Нояб</v>
+          </cell>
+          <cell r="D94">
+            <v>83</v>
+          </cell>
+          <cell r="F94">
+            <v>22</v>
+          </cell>
+          <cell r="G94">
+            <v>52</v>
+          </cell>
+          <cell r="H94">
+            <v>0.4</v>
+          </cell>
+          <cell r="I94">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95" t="str">
+            <v>383 Колбаса Сочинка по-европейски с сочной грудиной ТМ Стародворье в оболочке фиброуз в ва  Поком</v>
+          </cell>
+          <cell r="B95" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="D95">
+            <v>59.771000000000001</v>
+          </cell>
+          <cell r="E95">
+            <v>260.733</v>
+          </cell>
+          <cell r="F95">
+            <v>48.390999999999998</v>
+          </cell>
+          <cell r="G95">
+            <v>254.21</v>
+          </cell>
+          <cell r="H95">
+            <v>1</v>
+          </cell>
+          <cell r="I95">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96" t="str">
+            <v>384  Колбаса Сочинка по-фински с сочным окороком ТМ Стародворье в оболочке фиброуз в ва  Поком</v>
+          </cell>
+          <cell r="B96" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="D96">
+            <v>73.900000000000006</v>
+          </cell>
+          <cell r="E96">
+            <v>83.278999999999996</v>
+          </cell>
+          <cell r="F96">
+            <v>51.576000000000001</v>
+          </cell>
+          <cell r="G96">
+            <v>91.138000000000005</v>
+          </cell>
+          <cell r="H96">
+            <v>1</v>
+          </cell>
+          <cell r="I96">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97" t="str">
+            <v>388 Колбаски Филейбургские ТМ Баварушка с филе сочного окорока копченые в оболоч 0,28 кг ПОКОМ</v>
+          </cell>
+          <cell r="B97" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="D97">
+            <v>9</v>
+          </cell>
+          <cell r="E97">
+            <v>4</v>
+          </cell>
+          <cell r="F97">
+            <v>7</v>
+          </cell>
+          <cell r="H97">
+            <v>0</v>
+          </cell>
+          <cell r="I97">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98" t="str">
+            <v>389 Колбаса вареная Мусульманская Халяль ТМ Вязанка Халяль оболочка вектор 0,4 кг АК.  Поком</v>
+          </cell>
+          <cell r="B98" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="D98">
+            <v>144</v>
+          </cell>
+          <cell r="E98">
+            <v>17</v>
+          </cell>
+          <cell r="F98">
+            <v>86</v>
+          </cell>
+          <cell r="G98">
+            <v>75</v>
+          </cell>
+          <cell r="H98">
+            <v>0.4</v>
+          </cell>
+          <cell r="I98">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99" t="str">
+            <v>390 Сосиски Восточные Халяль ТМ Вязанка в оболочке полиамид в вакуумной упаковке 0,33 кг  Поком</v>
+          </cell>
+          <cell r="B99" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="D99">
+            <v>176</v>
+          </cell>
+          <cell r="E99">
+            <v>104</v>
+          </cell>
+          <cell r="F99">
+            <v>163</v>
+          </cell>
+          <cell r="G99">
+            <v>117</v>
+          </cell>
+          <cell r="H99">
+            <v>0.33</v>
+          </cell>
+          <cell r="I99">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100" t="str">
+            <v>БОНУС_096  Сосиски Баварские,  0.42кг,ПОКОМ</v>
+          </cell>
+          <cell r="B100" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="D100">
+            <v>-71</v>
+          </cell>
+          <cell r="E100">
+            <v>228.2</v>
+          </cell>
+          <cell r="F100">
+            <v>84.2</v>
+          </cell>
+          <cell r="H100">
+            <v>0</v>
+          </cell>
+          <cell r="I100">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101" t="str">
+            <v>БОНУС_229  Колбаса Молочная Дугушка, в/у, ВЕС, ТМ Стародворье   ПОКОМ</v>
+          </cell>
+          <cell r="B101" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="D101">
+            <v>-84.462000000000003</v>
+          </cell>
+          <cell r="E101">
+            <v>248.28399999999999</v>
+          </cell>
+          <cell r="F101">
+            <v>90.912999999999997</v>
+          </cell>
+          <cell r="H101">
+            <v>0</v>
+          </cell>
+          <cell r="I101">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102" t="str">
             <v>БОНУС_314 Колбаса вареная Филейская ТМ Вязанка ТС Классическая в оболочке полиамид.  ПОКОМ</v>
           </cell>
-          <cell r="B94" t="str">
+          <cell r="B102" t="str">
             <v>кг</v>
           </cell>
-          <cell r="D94">
-            <v>71.096000000000004</v>
-          </cell>
-          <cell r="F94">
-            <v>36.054000000000002</v>
-          </cell>
-          <cell r="G94">
-            <v>33.628999999999998</v>
-          </cell>
-          <cell r="H94">
-            <v>0</v>
-          </cell>
-          <cell r="I94">
+          <cell r="D102">
+            <v>-10.875999999999999</v>
+          </cell>
+          <cell r="E102">
+            <v>71.876999999999995</v>
+          </cell>
+          <cell r="F102">
+            <v>48.832000000000001</v>
+          </cell>
+          <cell r="H102">
+            <v>0</v>
+          </cell>
+          <cell r="I102">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103" t="str">
+            <v>У_003   Колбаса Вязанка с индейкой, вектор ВЕС, ПОКОМ</v>
+          </cell>
+          <cell r="B103" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="D103">
+            <v>604</v>
+          </cell>
+          <cell r="E103">
+            <v>5.7510000000000003</v>
+          </cell>
+          <cell r="F103">
+            <v>28.244</v>
+          </cell>
+          <cell r="H103">
+            <v>0</v>
+          </cell>
+          <cell r="I103">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104" t="str">
+            <v>У_022  Колбаса Вязанка со шпиком, вектор 0,5кг, ПОКОМ</v>
+          </cell>
+          <cell r="B104" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="D104">
+            <v>12</v>
+          </cell>
+          <cell r="G104">
+            <v>8</v>
+          </cell>
+          <cell r="H104">
+            <v>0</v>
+          </cell>
+          <cell r="I104">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105" t="str">
+            <v>У_312  Ветчина Филейская ТМ Вязанка ТС Столичная ВЕС  ПОКОМ</v>
+          </cell>
+          <cell r="B105" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="D105">
+            <v>39.543999999999997</v>
+          </cell>
+          <cell r="F105">
+            <v>2.73</v>
+          </cell>
+          <cell r="G105">
+            <v>36.814</v>
+          </cell>
+          <cell r="H105">
+            <v>0</v>
+          </cell>
+          <cell r="I105">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106" t="str">
+            <v>У_314 Колбаса вареная Филейская ТМ Вязанка ТС Классическая в оболочке полиамид.  ПОКОМ</v>
+          </cell>
+          <cell r="B106" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="D106">
+            <v>192.82400000000001</v>
+          </cell>
+          <cell r="F106">
+            <v>31.797000000000001</v>
+          </cell>
+          <cell r="G106">
+            <v>158.94200000000001</v>
+          </cell>
+          <cell r="H106">
+            <v>0</v>
+          </cell>
+          <cell r="I106">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107" t="str">
+            <v>У_315 Колбаса Нежная ТМ Зареченские ТС Зареченские продукты в оболочкНТУ.  изделие вар  ПОКОМ</v>
+          </cell>
+          <cell r="B107" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="D107">
+            <v>1167.768</v>
+          </cell>
+          <cell r="E107">
+            <v>1.083</v>
+          </cell>
+          <cell r="F107">
+            <v>4.431</v>
+          </cell>
+          <cell r="H107">
+            <v>0</v>
+          </cell>
+          <cell r="I107">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108" t="str">
+            <v>У_370 Ветчина Сливушка с индейкой ТМ Вязанка в оболочке полиамид.</v>
+          </cell>
+          <cell r="B108" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="D108">
+            <v>409</v>
+          </cell>
+          <cell r="F108">
+            <v>27.402000000000001</v>
+          </cell>
+          <cell r="H108">
+            <v>0</v>
+          </cell>
+          <cell r="I108">
             <v>0</v>
           </cell>
         </row>
@@ -10687,7 +10687,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S11" sqref="S11"/>
+      <selection pane="bottomLeft" activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -11013,7 +11013,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="29">
-        <f>VLOOKUP(A7,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A7,[2]TDSheet!$A:$I,9,0)</f>
         <v>50</v>
       </c>
       <c r="N7" s="13">
@@ -11090,7 +11090,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="29">
-        <f>VLOOKUP(A8,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A8,[2]TDSheet!$A:$I,9,0)</f>
         <v>45</v>
       </c>
       <c r="N8" s="13">
@@ -11160,7 +11160,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="29">
-        <f>VLOOKUP(A9,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A9,[2]TDSheet!$A:$I,9,0)</f>
         <v>45</v>
       </c>
       <c r="N9" s="13">
@@ -11298,7 +11298,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="29">
-        <f>VLOOKUP(A11,[2]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A11,[3]TDSheet!$A:$I,9,0)</f>
         <v>40</v>
       </c>
       <c r="N11" s="13">
@@ -11366,7 +11366,7 @@
         <v>0.45</v>
       </c>
       <c r="I12" s="29">
-        <f>VLOOKUP(A12,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A12,[2]TDSheet!$A:$I,9,0)</f>
         <v>45</v>
       </c>
       <c r="N12" s="13">
@@ -11436,7 +11436,7 @@
         <v>0.45</v>
       </c>
       <c r="I13" s="29">
-        <f>VLOOKUP(A13,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A13,[2]TDSheet!$A:$I,9,0)</f>
         <v>45</v>
       </c>
       <c r="N13" s="13">
@@ -11501,7 +11501,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="29">
-        <f>VLOOKUP(A14,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A14,[2]TDSheet!$A:$I,9,0)</f>
         <v>45</v>
       </c>
       <c r="N14" s="13">
@@ -11567,7 +11567,7 @@
         <v>0.17</v>
       </c>
       <c r="I15" s="29">
-        <f>VLOOKUP(A15,[2]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A15,[3]TDSheet!$A:$I,9,0)</f>
         <v>180</v>
       </c>
       <c r="N15" s="13">
@@ -11640,7 +11640,7 @@
         <v>0.3</v>
       </c>
       <c r="I16" s="29">
-        <f>VLOOKUP(A16,[2]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A16,[3]TDSheet!$A:$I,9,0)</f>
         <v>40</v>
       </c>
       <c r="N16" s="13">
@@ -11715,7 +11715,7 @@
         <v>0.4</v>
       </c>
       <c r="I17" s="29">
-        <f>VLOOKUP(A17,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A17,[2]TDSheet!$A:$I,9,0)</f>
         <v>50</v>
       </c>
       <c r="N17" s="13">
@@ -11788,7 +11788,7 @@
         <v>0.35</v>
       </c>
       <c r="I18" s="29">
-        <f>VLOOKUP(A18,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A18,[2]TDSheet!$A:$I,9,0)</f>
         <v>40</v>
       </c>
       <c r="N18" s="13">
@@ -11935,7 +11935,7 @@
         <v>0.42</v>
       </c>
       <c r="I20" s="29">
-        <f>VLOOKUP(A20,[2]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A20,[3]TDSheet!$A:$I,9,0)</f>
         <v>40</v>
       </c>
       <c r="N20" s="13">
@@ -12005,7 +12005,7 @@
         <v>0.42</v>
       </c>
       <c r="I21" s="29">
-        <f>VLOOKUP(A21,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A21,[2]TDSheet!$A:$I,9,0)</f>
         <v>45</v>
       </c>
       <c r="N21" s="13">
@@ -12075,7 +12075,7 @@
         <v>0.35</v>
       </c>
       <c r="I22" s="29">
-        <f>VLOOKUP(A22,[2]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A22,[3]TDSheet!$A:$I,9,0)</f>
         <v>45</v>
       </c>
       <c r="N22" s="13">
@@ -12150,7 +12150,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="29">
-        <f>VLOOKUP(A23,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A23,[2]TDSheet!$A:$I,9,0)</f>
         <v>55</v>
       </c>
       <c r="N23" s="13">
@@ -12220,7 +12220,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="29">
-        <f>VLOOKUP(A24,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A24,[2]TDSheet!$A:$I,9,0)</f>
         <v>50</v>
       </c>
       <c r="N24" s="13">
@@ -12292,7 +12292,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="29">
-        <f>VLOOKUP(A25,[2]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A25,[3]TDSheet!$A:$I,9,0)</f>
         <v>55</v>
       </c>
       <c r="N25" s="13">
@@ -12365,7 +12365,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="29">
-        <f>VLOOKUP(A26,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A26,[2]TDSheet!$A:$I,9,0)</f>
         <v>55</v>
       </c>
       <c r="N26" s="13">
@@ -12437,7 +12437,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="29">
-        <f>VLOOKUP(A27,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A27,[2]TDSheet!$A:$I,9,0)</f>
         <v>60</v>
       </c>
       <c r="N27" s="13">
@@ -12512,7 +12512,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="29">
-        <f>VLOOKUP(A28,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A28,[2]TDSheet!$A:$I,9,0)</f>
         <v>50</v>
       </c>
       <c r="N28" s="13">
@@ -12594,7 +12594,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="29">
-        <f>VLOOKUP(A29,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A29,[2]TDSheet!$A:$I,9,0)</f>
         <v>55</v>
       </c>
       <c r="N29" s="13">
@@ -12671,7 +12671,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="29">
-        <f>VLOOKUP(A30,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A30,[2]TDSheet!$A:$I,9,0)</f>
         <v>60</v>
       </c>
       <c r="N30" s="13">
@@ -12743,7 +12743,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="29">
-        <f>VLOOKUP(A31,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A31,[2]TDSheet!$A:$I,9,0)</f>
         <v>60</v>
       </c>
       <c r="N31" s="13">
@@ -12818,7 +12818,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="29">
-        <f>VLOOKUP(A32,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A32,[2]TDSheet!$A:$I,9,0)</f>
         <v>60</v>
       </c>
       <c r="N32" s="13">
@@ -12893,7 +12893,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="29">
-        <f>VLOOKUP(A33,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A33,[2]TDSheet!$A:$I,9,0)</f>
         <v>60</v>
       </c>
       <c r="N33" s="13">
@@ -12966,7 +12966,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="29">
-        <f>VLOOKUP(A34,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A34,[2]TDSheet!$A:$I,9,0)</f>
         <v>60</v>
       </c>
       <c r="N34" s="13">
@@ -13036,7 +13036,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="29">
-        <f>VLOOKUP(A35,[2]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A35,[3]TDSheet!$A:$I,9,0)</f>
         <v>35</v>
       </c>
       <c r="N35" s="13">
@@ -13106,7 +13106,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="29">
-        <f>VLOOKUP(A36,[2]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A36,[3]TDSheet!$A:$I,9,0)</f>
         <v>40</v>
       </c>
       <c r="N36" s="13">
@@ -13176,7 +13176,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="29">
-        <f>VLOOKUP(A37,[2]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A37,[3]TDSheet!$A:$I,9,0)</f>
         <v>30</v>
       </c>
       <c r="N37" s="13">
@@ -13246,7 +13246,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="29">
-        <f>VLOOKUP(A38,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A38,[2]TDSheet!$A:$I,9,0)</f>
         <v>30</v>
       </c>
       <c r="N38" s="13">
@@ -13316,7 +13316,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="29">
-        <f>VLOOKUP(A39,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A39,[2]TDSheet!$A:$I,9,0)</f>
         <v>30</v>
       </c>
       <c r="N39" s="13">
@@ -13393,7 +13393,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="29">
-        <f>VLOOKUP(A40,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A40,[2]TDSheet!$A:$I,9,0)</f>
         <v>40</v>
       </c>
       <c r="N40" s="13">
@@ -13461,7 +13461,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="29">
-        <f>VLOOKUP(A41,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A41,[2]TDSheet!$A:$I,9,0)</f>
         <v>35</v>
       </c>
       <c r="N41" s="13">
@@ -13603,7 +13603,7 @@
         <v>1</v>
       </c>
       <c r="I43" s="29">
-        <f>VLOOKUP(A43,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A43,[2]TDSheet!$A:$I,9,0)</f>
         <v>45</v>
       </c>
       <c r="N43" s="13">
@@ -13673,7 +13673,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="29">
-        <f>VLOOKUP(A44,[2]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A44,[3]TDSheet!$A:$I,9,0)</f>
         <v>45</v>
       </c>
       <c r="N44" s="13">
@@ -13745,7 +13745,7 @@
         <v>0.35</v>
       </c>
       <c r="I45" s="29">
-        <f>VLOOKUP(A45,[2]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A45,[3]TDSheet!$A:$I,9,0)</f>
         <v>40</v>
       </c>
       <c r="N45" s="13">
@@ -13818,7 +13818,7 @@
         <v>0.4</v>
       </c>
       <c r="I46" s="29">
-        <f>VLOOKUP(A46,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A46,[2]TDSheet!$A:$I,9,0)</f>
         <v>45</v>
       </c>
       <c r="N46" s="13">
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="29">
-        <f>VLOOKUP(A47,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A47,[2]TDSheet!$A:$I,9,0)</f>
         <v>50</v>
       </c>
       <c r="N47" s="13">
@@ -13960,7 +13960,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="29">
-        <f>VLOOKUP(A48,[2]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A48,[3]TDSheet!$A:$I,9,0)</f>
         <v>45</v>
       </c>
       <c r="N48" s="13">
@@ -14030,7 +14030,7 @@
         <v>0.35</v>
       </c>
       <c r="I49" s="29">
-        <f>VLOOKUP(A49,[2]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A49,[3]TDSheet!$A:$I,9,0)</f>
         <v>40</v>
       </c>
       <c r="N49" s="13">
@@ -14175,7 +14175,7 @@
         <v>0.4</v>
       </c>
       <c r="I51" s="29">
-        <f>VLOOKUP(A51,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A51,[2]TDSheet!$A:$I,9,0)</f>
         <v>40</v>
       </c>
       <c r="N51" s="13">
@@ -14248,7 +14248,7 @@
         <v>0.4</v>
       </c>
       <c r="I52" s="29">
-        <f>VLOOKUP(A52,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A52,[2]TDSheet!$A:$I,9,0)</f>
         <v>45</v>
       </c>
       <c r="N52" s="13">
@@ -14326,7 +14326,7 @@
         <v>0.4</v>
       </c>
       <c r="I53" s="29">
-        <f>VLOOKUP(A53,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A53,[2]TDSheet!$A:$I,9,0)</f>
         <v>40</v>
       </c>
       <c r="N53" s="13">
@@ -14398,7 +14398,7 @@
         <v>1</v>
       </c>
       <c r="I54" s="29">
-        <f>VLOOKUP(A54,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A54,[2]TDSheet!$A:$I,9,0)</f>
         <v>50</v>
       </c>
       <c r="N54" s="13">
@@ -14471,7 +14471,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="29">
-        <f>VLOOKUP(A55,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A55,[2]TDSheet!$A:$I,9,0)</f>
         <v>50</v>
       </c>
       <c r="N55" s="13">
@@ -14548,7 +14548,7 @@
         <v>1</v>
       </c>
       <c r="I56" s="29">
-        <f>VLOOKUP(A56,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A56,[2]TDSheet!$A:$I,9,0)</f>
         <v>55</v>
       </c>
       <c r="N56" s="13">
@@ -14683,7 +14683,7 @@
         <v>0.4</v>
       </c>
       <c r="I58" s="29">
-        <f>VLOOKUP(A58,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A58,[2]TDSheet!$A:$I,9,0)</f>
         <v>45</v>
       </c>
       <c r="N58" s="13">
@@ -14759,7 +14759,7 @@
         <v>0.35</v>
       </c>
       <c r="I59" s="29">
-        <f>VLOOKUP(A59,[2]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A59,[3]TDSheet!$A:$I,9,0)</f>
         <v>40</v>
       </c>
       <c r="N59" s="13">
@@ -14905,7 +14905,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="29">
-        <f>VLOOKUP(A61,[2]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A61,[3]TDSheet!$A:$I,9,0)</f>
         <v>40</v>
       </c>
       <c r="N61" s="13">
@@ -14976,7 +14976,7 @@
         <v>0.4</v>
       </c>
       <c r="I62" s="29">
-        <f>VLOOKUP(A62,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A62,[2]TDSheet!$A:$I,9,0)</f>
         <v>40</v>
       </c>
       <c r="N62" s="13">
@@ -15048,7 +15048,7 @@
         <v>1</v>
       </c>
       <c r="I63" s="29">
-        <f>VLOOKUP(A63,[2]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A63,[3]TDSheet!$A:$I,9,0)</f>
         <v>40</v>
       </c>
       <c r="N63" s="13">
@@ -15115,7 +15115,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="29">
-        <f>VLOOKUP(A64,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A64,[2]TDSheet!$A:$I,9,0)</f>
         <v>35</v>
       </c>
       <c r="N64" s="13">
@@ -15183,7 +15183,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I65" s="29">
-        <f>VLOOKUP(A65,[2]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A65,[3]TDSheet!$A:$I,9,0)</f>
         <v>45</v>
       </c>
       <c r="N65" s="13">
@@ -15253,7 +15253,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="29">
-        <f>VLOOKUP(A66,[2]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A66,[3]TDSheet!$A:$I,9,0)</f>
         <v>30</v>
       </c>
       <c r="N66" s="13">
@@ -15326,7 +15326,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I67" s="29">
-        <f>VLOOKUP(A67,[2]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A67,[3]TDSheet!$A:$I,9,0)</f>
         <v>45</v>
       </c>
       <c r="N67" s="13">
@@ -15473,7 +15473,7 @@
         <v>1</v>
       </c>
       <c r="I69" s="29">
-        <f>VLOOKUP(A69,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A69,[2]TDSheet!$A:$I,9,0)</f>
         <v>50</v>
       </c>
       <c r="N69" s="13">
@@ -15552,7 +15552,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="29">
-        <f>VLOOKUP(A70,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A70,[2]TDSheet!$A:$I,9,0)</f>
         <v>50</v>
       </c>
       <c r="N70" s="13">
@@ -15624,7 +15624,7 @@
         <v>0.4</v>
       </c>
       <c r="I71" s="29">
-        <f>VLOOKUP(A71,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A71,[2]TDSheet!$A:$I,9,0)</f>
         <v>40</v>
       </c>
       <c r="N71" s="13">
@@ -15696,7 +15696,7 @@
         <v>0.4</v>
       </c>
       <c r="I72" s="29">
-        <f>VLOOKUP(A72,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A72,[2]TDSheet!$A:$I,9,0)</f>
         <v>40</v>
       </c>
       <c r="N72" s="13">
@@ -15768,7 +15768,7 @@
         <v>0.4</v>
       </c>
       <c r="I73" s="29">
-        <f>VLOOKUP(A73,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A73,[2]TDSheet!$A:$I,9,0)</f>
         <v>40</v>
       </c>
       <c r="N73" s="13">
@@ -15836,7 +15836,7 @@
         <v>0.4</v>
       </c>
       <c r="I74" s="29">
-        <f>VLOOKUP(A74,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A74,[2]TDSheet!$A:$I,9,0)</f>
         <v>40</v>
       </c>
       <c r="N74" s="13">
@@ -15901,7 +15901,7 @@
         <v>1</v>
       </c>
       <c r="I75" s="29">
-        <f>VLOOKUP(A75,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A75,[2]TDSheet!$A:$I,9,0)</f>
         <v>40</v>
       </c>
       <c r="N75" s="13">
@@ -15966,7 +15966,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="29">
-        <f>VLOOKUP(A76,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A76,[2]TDSheet!$A:$I,9,0)</f>
         <v>40</v>
       </c>
       <c r="N76" s="13">
@@ -16036,7 +16036,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I77" s="29">
-        <f>VLOOKUP(A77,[2]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A77,[3]TDSheet!$A:$I,9,0)</f>
         <v>35</v>
       </c>
       <c r="N77" s="13">
@@ -16104,7 +16104,7 @@
         <v>0.4</v>
       </c>
       <c r="I78" s="29">
-        <f>VLOOKUP(A78,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A78,[2]TDSheet!$A:$I,9,0)</f>
         <v>90</v>
       </c>
       <c r="N78" s="13">
@@ -16177,7 +16177,7 @@
         <v>0.33</v>
       </c>
       <c r="I79" s="29">
-        <f>VLOOKUP(A79,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A79,[2]TDSheet!$A:$I,9,0)</f>
         <v>60</v>
       </c>
       <c r="N79" s="13">
@@ -16833,7 +16833,7 @@
         <v>0</v>
       </c>
       <c r="I88" s="29">
-        <f>VLOOKUP(A88,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A88,[2]TDSheet!$A:$I,9,0)</f>
         <v>0</v>
       </c>
       <c r="N88" s="13">
@@ -16898,7 +16898,7 @@
         <v>0</v>
       </c>
       <c r="I89" s="29">
-        <f>VLOOKUP(A89,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A89,[2]TDSheet!$A:$I,9,0)</f>
         <v>0</v>
       </c>
       <c r="N89" s="13">
@@ -16963,7 +16963,7 @@
         <v>0</v>
       </c>
       <c r="I90" s="29">
-        <f>VLOOKUP(A90,[3]TDSheet!$A:$I,9,0)</f>
+        <f>VLOOKUP(A90,[2]TDSheet!$A:$I,9,0)</f>
         <v>0</v>
       </c>
       <c r="N90" s="13">
